--- a/asset/Learn/ITA-HA-configuration.xlsx
+++ b/asset/Learn/ITA-HA-configuration.xlsx
@@ -9787,7 +9787,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10005,6 +10005,22 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -10632,7 +10648,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11040,6 +11056,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -12222,14 +12244,14 @@
       <c r="K73" s="96"/>
       <c r="L73" s="96"/>
       <c r="M73" s="96"/>
-      <c r="N73" s="136"/>
-      <c r="O73" s="137"/>
-      <c r="P73" s="137"/>
-      <c r="Q73" s="137"/>
-      <c r="R73" s="137"/>
-      <c r="S73" s="137"/>
-      <c r="T73" s="137"/>
-      <c r="U73" s="137"/>
+      <c r="N73" s="138"/>
+      <c r="O73" s="139"/>
+      <c r="P73" s="139"/>
+      <c r="Q73" s="139"/>
+      <c r="R73" s="139"/>
+      <c r="S73" s="139"/>
+      <c r="T73" s="139"/>
+      <c r="U73" s="139"/>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.15">
       <c r="F74" s="17"/>
@@ -12440,30 +12462,30 @@
     </row>
     <row r="86" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="62"/>
-      <c r="C86" s="141" t="s">
+      <c r="C86" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="D86" s="145" t="s">
+      <c r="D86" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="E86" s="139" t="s">
+      <c r="E86" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="F86" s="142" t="s">
+      <c r="F86" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="G86" s="143"/>
-      <c r="H86" s="143"/>
-      <c r="I86" s="143"/>
-      <c r="J86" s="144"/>
-      <c r="K86" s="144"/>
+      <c r="G86" s="145"/>
+      <c r="H86" s="145"/>
+      <c r="I86" s="145"/>
+      <c r="J86" s="146"/>
+      <c r="K86" s="146"/>
       <c r="L86" s="19"/>
     </row>
     <row r="87" spans="2:15" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="62"/>
-      <c r="C87" s="141"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="140"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="142"/>
       <c r="F87" s="91" t="s">
         <v>69</v>
       </c>
@@ -12780,14 +12802,14 @@
       <c r="K100" s="96"/>
       <c r="L100" s="96"/>
       <c r="M100" s="96"/>
-      <c r="N100" s="136"/>
-      <c r="O100" s="137"/>
-      <c r="P100" s="137"/>
-      <c r="Q100" s="137"/>
-      <c r="R100" s="137"/>
-      <c r="S100" s="137"/>
-      <c r="T100" s="137"/>
-      <c r="U100" s="137"/>
+      <c r="N100" s="138"/>
+      <c r="O100" s="139"/>
+      <c r="P100" s="139"/>
+      <c r="Q100" s="139"/>
+      <c r="R100" s="139"/>
+      <c r="S100" s="139"/>
+      <c r="T100" s="139"/>
+      <c r="U100" s="139"/>
     </row>
     <row r="101" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B101" s="17"/>
@@ -13104,14 +13126,14 @@
       <c r="K118" s="64"/>
       <c r="L118" s="64"/>
       <c r="M118" s="64"/>
-      <c r="N118" s="138"/>
-      <c r="O118" s="137"/>
-      <c r="P118" s="137"/>
-      <c r="Q118" s="137"/>
-      <c r="R118" s="137"/>
-      <c r="S118" s="137"/>
-      <c r="T118" s="137"/>
-      <c r="U118" s="137"/>
+      <c r="N118" s="140"/>
+      <c r="O118" s="139"/>
+      <c r="P118" s="139"/>
+      <c r="Q118" s="139"/>
+      <c r="R118" s="139"/>
+      <c r="S118" s="139"/>
+      <c r="T118" s="139"/>
+      <c r="U118" s="139"/>
     </row>
     <row r="119" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B119" s="17"/>
@@ -13249,7 +13271,7 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="89" fitToHeight="0" orientation="landscape" r:id="rId15"/>
   <headerFooter>
-    <oddFooter>&amp;CIT Automation HA構成インストールマニュアル 1 / 1</oddFooter>
+    <oddFooter>&amp;CIT Automation HA configuration installation manual &amp;P / &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="68" max="23" man="1"/>
@@ -13268,10 +13290,10 @@
   </sheetPr>
   <dimension ref="B1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L48" sqref="L48:M48"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13300,18 +13322,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="19" t="s">
         <v>185</v>
       </c>
@@ -13319,19 +13341,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="156" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(Web・AP)</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="53" t="s">
         <v>186</v>
       </c>
@@ -13452,33 +13474,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="175" t="s">
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="176"/>
-      <c r="N11" s="169" t="s">
+      <c r="M11" s="178"/>
+      <c r="N11" s="171" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="4" t="s">
         <v>117</v>
       </c>
@@ -13503,9 +13525,9 @@
       <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="170"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="172"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -13520,8 +13542,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
+      <c r="L13" s="206"/>
+      <c r="M13" s="206"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -13529,23 +13551,23 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172" t="s">
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="181" t="s">
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="183" t="s">
         <v>250</v>
       </c>
-      <c r="M14" s="182"/>
+      <c r="M14" s="184"/>
       <c r="N14" s="16" t="s">
         <v>254</v>
       </c>
@@ -13555,19 +13577,19 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="181" t="s">
+      <c r="C15" s="169"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="199"/>
+      <c r="M15" s="201"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13575,19 +13597,19 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="181" t="s">
+      <c r="C16" s="169"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="183" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="199"/>
+      <c r="M16" s="201"/>
       <c r="N16" s="26"/>
     </row>
     <row r="17" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -13595,19 +13617,19 @@
         <f>MAX(B$11:B16)+1</f>
         <v>4</v>
       </c>
-      <c r="C17" s="168"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="181" t="s">
+      <c r="C17" s="170"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="M17" s="199"/>
+      <c r="M17" s="201"/>
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -13623,8 +13645,8 @@
       <c r="I18" s="134"/>
       <c r="J18" s="134"/>
       <c r="K18" s="134"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="180"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="182"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -13645,11 +13667,11 @@
       <c r="I19" s="131"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="203" t="s">
+      <c r="L19" s="205" t="s">
         <v>359</v>
       </c>
-      <c r="M19" s="182"/>
-      <c r="N19" s="27" t="s">
+      <c r="M19" s="184"/>
+      <c r="N19" s="136" t="s">
         <v>389</v>
       </c>
     </row>
@@ -13666,8 +13688,8 @@
       <c r="I20" s="134"/>
       <c r="J20" s="134"/>
       <c r="K20" s="134"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="180"/>
+      <c r="L20" s="206"/>
+      <c r="M20" s="182"/>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -13688,11 +13710,11 @@
       <c r="I21" s="131"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="203" t="s">
+      <c r="L21" s="205" t="s">
         <v>360</v>
       </c>
-      <c r="M21" s="182"/>
-      <c r="N21" s="27" t="s">
+      <c r="M21" s="184"/>
+      <c r="N21" s="137" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13714,10 +13736,10 @@
       <c r="I22" s="131"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="203" t="s">
+      <c r="L22" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="182"/>
+      <c r="M22" s="184"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -13733,8 +13755,8 @@
       <c r="I23" s="134"/>
       <c r="J23" s="134"/>
       <c r="K23" s="134"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="180"/>
+      <c r="L23" s="206"/>
+      <c r="M23" s="182"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:14" ht="202.5" x14ac:dyDescent="0.15">
@@ -13755,10 +13777,10 @@
       <c r="I24" s="131"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="203" t="s">
+      <c r="L24" s="205" t="s">
         <v>361</v>
       </c>
-      <c r="M24" s="182"/>
+      <c r="M24" s="184"/>
       <c r="N24" s="27" t="s">
         <v>392</v>
       </c>
@@ -13781,10 +13803,10 @@
       <c r="I25" s="131"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="203" t="s">
+      <c r="L25" s="205" t="s">
         <v>362</v>
       </c>
-      <c r="M25" s="182"/>
+      <c r="M25" s="184"/>
       <c r="N25" s="27" t="s">
         <v>394</v>
       </c>
@@ -13807,10 +13829,10 @@
       <c r="I26" s="131"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="203" t="s">
+      <c r="L26" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="182"/>
+      <c r="M26" s="184"/>
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -13818,23 +13840,23 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="173" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172" t="s">
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="203" t="s">
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="182"/>
+      <c r="M27" s="184"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="54" x14ac:dyDescent="0.15">
@@ -13842,19 +13864,19 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="203" t="s">
+      <c r="C28" s="169"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="205" t="s">
         <v>363</v>
       </c>
-      <c r="M28" s="182"/>
+      <c r="M28" s="184"/>
       <c r="N28" s="27" t="s">
         <v>257</v>
       </c>
@@ -13864,23 +13886,23 @@
         <f>MAX(B$11:B28)+1</f>
         <v>13</v>
       </c>
-      <c r="C29" s="171" t="s">
+      <c r="C29" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172" t="s">
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="203" t="s">
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="205" t="s">
         <v>259</v>
       </c>
-      <c r="M29" s="182"/>
+      <c r="M29" s="184"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -13888,19 +13910,19 @@
         <f>MAX(B$11:B29)+1</f>
         <v>14</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="203" t="s">
+      <c r="C30" s="169"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="205" t="s">
         <v>365</v>
       </c>
-      <c r="M30" s="182"/>
+      <c r="M30" s="184"/>
       <c r="N30" s="27" t="s">
         <v>261</v>
       </c>
@@ -13918,8 +13940,8 @@
       <c r="I31" s="134"/>
       <c r="J31" s="134"/>
       <c r="K31" s="134"/>
-      <c r="L31" s="204"/>
-      <c r="M31" s="180"/>
+      <c r="L31" s="206"/>
+      <c r="M31" s="182"/>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -13940,10 +13962,10 @@
       <c r="I32" s="131"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="203" t="s">
+      <c r="L32" s="205" t="s">
         <v>367</v>
       </c>
-      <c r="M32" s="182"/>
+      <c r="M32" s="184"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -13964,10 +13986,10 @@
       <c r="I33" s="131"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="203" t="s">
+      <c r="L33" s="205" t="s">
         <v>368</v>
       </c>
-      <c r="M33" s="182"/>
+      <c r="M33" s="184"/>
       <c r="N33" s="27"/>
     </row>
     <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -13988,10 +14010,10 @@
       <c r="I34" s="131"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="203" t="s">
+      <c r="L34" s="205" t="s">
         <v>369</v>
       </c>
-      <c r="M34" s="182"/>
+      <c r="M34" s="184"/>
       <c r="N34" s="27"/>
     </row>
     <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -14007,8 +14029,8 @@
       <c r="I35" s="134"/>
       <c r="J35" s="134"/>
       <c r="K35" s="134"/>
-      <c r="L35" s="204"/>
-      <c r="M35" s="180"/>
+      <c r="L35" s="206"/>
+      <c r="M35" s="182"/>
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="2:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14029,10 +14051,10 @@
       <c r="I36" s="35"/>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
-      <c r="L36" s="203" t="s">
+      <c r="L36" s="205" t="s">
         <v>370</v>
       </c>
-      <c r="M36" s="182"/>
+      <c r="M36" s="184"/>
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -14048,8 +14070,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="204"/>
-      <c r="M37" s="180"/>
+      <c r="L37" s="206"/>
+      <c r="M37" s="182"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -14070,10 +14092,10 @@
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="203" t="s">
+      <c r="L38" s="205" t="s">
         <v>433</v>
       </c>
-      <c r="M38" s="182"/>
+      <c r="M38" s="184"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -14094,10 +14116,10 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="203" t="s">
+      <c r="L39" s="205" t="s">
         <v>476</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -14118,10 +14140,10 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="203" t="s">
+      <c r="L40" s="205" t="s">
         <v>477</v>
       </c>
-      <c r="M40" s="182"/>
+      <c r="M40" s="184"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -14142,10 +14164,10 @@
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="203" t="s">
+      <c r="L41" s="205" t="s">
         <v>475</v>
       </c>
-      <c r="M41" s="182"/>
+      <c r="M41" s="184"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14166,10 +14188,10 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="203" t="s">
+      <c r="L42" s="205" t="s">
         <v>474</v>
       </c>
-      <c r="M42" s="199"/>
+      <c r="M42" s="201"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -14190,10 +14212,10 @@
       <c r="I43" s="28"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="181" t="s">
+      <c r="L43" s="183" t="s">
         <v>473</v>
       </c>
-      <c r="M43" s="199"/>
+      <c r="M43" s="201"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -14214,10 +14236,10 @@
       <c r="I44" s="28"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="181" t="s">
+      <c r="L44" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="M44" s="199"/>
+      <c r="M44" s="201"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -14238,10 +14260,10 @@
       <c r="I45" s="28"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="181" t="s">
+      <c r="L45" s="183" t="s">
         <v>291</v>
       </c>
-      <c r="M45" s="199"/>
+      <c r="M45" s="201"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14262,10 +14284,10 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="202" t="s">
+      <c r="L46" s="204" t="s">
         <v>292</v>
       </c>
-      <c r="M46" s="199"/>
+      <c r="M46" s="201"/>
       <c r="N46" s="45"/>
     </row>
     <row r="47" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14286,10 +14308,10 @@
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="202" t="s">
+      <c r="L47" s="204" t="s">
         <v>293</v>
       </c>
-      <c r="M47" s="199"/>
+      <c r="M47" s="201"/>
       <c r="N47" s="45"/>
     </row>
     <row r="48" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14312,10 +14334,10 @@
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="202" t="s">
+      <c r="L48" s="204" t="s">
         <v>294</v>
       </c>
-      <c r="M48" s="199"/>
+      <c r="M48" s="201"/>
       <c r="N48" s="45"/>
     </row>
     <row r="49" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14338,10 +14360,10 @@
         <v>5</v>
       </c>
       <c r="K49" s="25"/>
-      <c r="L49" s="202" t="s">
+      <c r="L49" s="204" t="s">
         <v>295</v>
       </c>
-      <c r="M49" s="199"/>
+      <c r="M49" s="201"/>
       <c r="N49" s="45"/>
     </row>
     <row r="50" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14364,10 +14386,10 @@
       <c r="K50" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L50" s="202" t="s">
+      <c r="L50" s="204" t="s">
         <v>448</v>
       </c>
-      <c r="M50" s="199"/>
+      <c r="M50" s="201"/>
       <c r="N50" s="45"/>
     </row>
     <row r="51" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14388,10 +14410,10 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="202" t="s">
+      <c r="L51" s="204" t="s">
         <v>297</v>
       </c>
-      <c r="M51" s="199"/>
+      <c r="M51" s="201"/>
       <c r="N51" s="45"/>
     </row>
     <row r="52" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14412,10 +14434,10 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="202" t="s">
+      <c r="L52" s="204" t="s">
         <v>298</v>
       </c>
-      <c r="M52" s="199"/>
+      <c r="M52" s="201"/>
       <c r="N52" s="45"/>
     </row>
     <row r="53" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14438,10 +14460,10 @@
       <c r="I53" s="34"/>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
-      <c r="L53" s="202" t="s">
+      <c r="L53" s="204" t="s">
         <v>299</v>
       </c>
-      <c r="M53" s="199"/>
+      <c r="M53" s="201"/>
       <c r="N53" s="45"/>
     </row>
     <row r="54" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14462,10 +14484,10 @@
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
       <c r="K54" s="34"/>
-      <c r="L54" s="202" t="s">
+      <c r="L54" s="204" t="s">
         <v>300</v>
       </c>
-      <c r="M54" s="199"/>
+      <c r="M54" s="201"/>
       <c r="N54" s="45"/>
     </row>
     <row r="55" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14486,10 +14508,10 @@
       </c>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
-      <c r="L55" s="202" t="s">
+      <c r="L55" s="204" t="s">
         <v>301</v>
       </c>
-      <c r="M55" s="199"/>
+      <c r="M55" s="201"/>
       <c r="N55" s="45"/>
     </row>
     <row r="56" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14510,10 +14532,10 @@
         <v>5</v>
       </c>
       <c r="K56" s="25"/>
-      <c r="L56" s="202" t="s">
+      <c r="L56" s="204" t="s">
         <v>302</v>
       </c>
-      <c r="M56" s="199"/>
+      <c r="M56" s="201"/>
       <c r="N56" s="45"/>
     </row>
     <row r="57" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14534,10 +14556,10 @@
       <c r="K57" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="202" t="s">
+      <c r="L57" s="204" t="s">
         <v>303</v>
       </c>
-      <c r="M57" s="199"/>
+      <c r="M57" s="201"/>
       <c r="N57" s="45"/>
     </row>
     <row r="58" spans="2:14" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -14558,10 +14580,10 @@
       <c r="I58" s="131"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="181" t="s">
+      <c r="L58" s="183" t="s">
         <v>309</v>
       </c>
-      <c r="M58" s="199"/>
+      <c r="M58" s="201"/>
       <c r="N58" s="29" t="s">
         <v>304</v>
       </c>
@@ -14584,10 +14606,10 @@
       <c r="I59" s="131"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="181" t="s">
+      <c r="L59" s="183" t="s">
         <v>305</v>
       </c>
-      <c r="M59" s="199"/>
+      <c r="M59" s="201"/>
       <c r="N59" s="29" t="s">
         <v>307</v>
       </c>
@@ -14610,10 +14632,10 @@
       <c r="I60" s="131"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="181" t="s">
+      <c r="L60" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="M60" s="199"/>
+      <c r="M60" s="201"/>
       <c r="N60" s="29" t="s">
         <v>308</v>
       </c>
@@ -14636,10 +14658,10 @@
       <c r="I61" s="35"/>
       <c r="J61" s="34"/>
       <c r="K61" s="34"/>
-      <c r="L61" s="203" t="s">
+      <c r="L61" s="205" t="s">
         <v>442</v>
       </c>
-      <c r="M61" s="199"/>
+      <c r="M61" s="201"/>
       <c r="N61" s="29"/>
     </row>
     <row r="62" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -14655,238 +14677,238 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="204"/>
-      <c r="M62" s="180"/>
+      <c r="L62" s="206"/>
+      <c r="M62" s="182"/>
       <c r="N62" s="8"/>
     </row>
     <row r="63" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="189">
+      <c r="B63" s="191">
         <f>MAX(B$11:B62)+1</f>
         <v>43</v>
       </c>
-      <c r="C63" s="208" t="s">
+      <c r="C63" s="210" t="s">
         <v>440</v>
       </c>
-      <c r="D63" s="172" t="s">
+      <c r="D63" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="172"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="172"/>
-      <c r="K63" s="172"/>
-      <c r="L63" s="181" t="s">
+      <c r="E63" s="174"/>
+      <c r="F63" s="174"/>
+      <c r="G63" s="174"/>
+      <c r="H63" s="174"/>
+      <c r="I63" s="174"/>
+      <c r="J63" s="174"/>
+      <c r="K63" s="174"/>
+      <c r="L63" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="M63" s="182"/>
-      <c r="N63" s="195"/>
+      <c r="M63" s="184"/>
+      <c r="N63" s="197"/>
     </row>
     <row r="64" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="190"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="190"/>
-      <c r="E64" s="190"/>
-      <c r="F64" s="190"/>
-      <c r="G64" s="190"/>
-      <c r="H64" s="190"/>
-      <c r="I64" s="190"/>
-      <c r="J64" s="190"/>
-      <c r="K64" s="190"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="192"/>
+      <c r="E64" s="192"/>
+      <c r="F64" s="192"/>
+      <c r="G64" s="192"/>
+      <c r="H64" s="192"/>
+      <c r="I64" s="192"/>
+      <c r="J64" s="192"/>
+      <c r="K64" s="192"/>
       <c r="L64" s="82" t="s">
         <v>443</v>
       </c>
       <c r="M64" s="83" t="s">
         <v>375</v>
       </c>
-      <c r="N64" s="196"/>
+      <c r="N64" s="198"/>
     </row>
     <row r="65" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="190"/>
-      <c r="C65" s="209"/>
-      <c r="D65" s="190"/>
-      <c r="E65" s="190"/>
-      <c r="F65" s="190"/>
-      <c r="G65" s="190"/>
-      <c r="H65" s="190"/>
-      <c r="I65" s="190"/>
-      <c r="J65" s="190"/>
-      <c r="K65" s="190"/>
+      <c r="B65" s="192"/>
+      <c r="C65" s="211"/>
+      <c r="D65" s="192"/>
+      <c r="E65" s="192"/>
+      <c r="F65" s="192"/>
+      <c r="G65" s="192"/>
+      <c r="H65" s="192"/>
+      <c r="I65" s="192"/>
+      <c r="J65" s="192"/>
+      <c r="K65" s="192"/>
       <c r="L65" s="84" t="s">
         <v>270</v>
       </c>
       <c r="M65" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="N65" s="196"/>
+      <c r="N65" s="198"/>
     </row>
     <row r="66" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="190"/>
-      <c r="C66" s="209"/>
-      <c r="D66" s="190"/>
-      <c r="E66" s="190"/>
-      <c r="F66" s="190"/>
-      <c r="G66" s="190"/>
-      <c r="H66" s="190"/>
-      <c r="I66" s="190"/>
-      <c r="J66" s="190"/>
-      <c r="K66" s="190"/>
+      <c r="B66" s="192"/>
+      <c r="C66" s="211"/>
+      <c r="D66" s="192"/>
+      <c r="E66" s="192"/>
+      <c r="F66" s="192"/>
+      <c r="G66" s="192"/>
+      <c r="H66" s="192"/>
+      <c r="I66" s="192"/>
+      <c r="J66" s="192"/>
+      <c r="K66" s="192"/>
       <c r="L66" s="84" t="s">
         <v>438</v>
       </c>
       <c r="M66" s="87" t="s">
         <v>439</v>
       </c>
-      <c r="N66" s="196"/>
+      <c r="N66" s="198"/>
     </row>
     <row r="67" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="190"/>
-      <c r="C67" s="209"/>
-      <c r="D67" s="190"/>
-      <c r="E67" s="190"/>
-      <c r="F67" s="190"/>
-      <c r="G67" s="190"/>
-      <c r="H67" s="190"/>
-      <c r="I67" s="190"/>
-      <c r="J67" s="190"/>
-      <c r="K67" s="190"/>
+      <c r="B67" s="192"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="192"/>
+      <c r="E67" s="192"/>
+      <c r="F67" s="192"/>
+      <c r="G67" s="192"/>
+      <c r="H67" s="192"/>
+      <c r="I67" s="192"/>
+      <c r="J67" s="192"/>
+      <c r="K67" s="192"/>
       <c r="L67" s="84" t="s">
         <v>271</v>
       </c>
       <c r="M67" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="N67" s="196"/>
+      <c r="N67" s="198"/>
     </row>
     <row r="68" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="190"/>
-      <c r="C68" s="209"/>
-      <c r="D68" s="190"/>
-      <c r="E68" s="190"/>
-      <c r="F68" s="190"/>
-      <c r="G68" s="190"/>
-      <c r="H68" s="190"/>
-      <c r="I68" s="190"/>
-      <c r="J68" s="190"/>
-      <c r="K68" s="190"/>
+      <c r="B68" s="192"/>
+      <c r="C68" s="211"/>
+      <c r="D68" s="192"/>
+      <c r="E68" s="192"/>
+      <c r="F68" s="192"/>
+      <c r="G68" s="192"/>
+      <c r="H68" s="192"/>
+      <c r="I68" s="192"/>
+      <c r="J68" s="192"/>
+      <c r="K68" s="192"/>
       <c r="L68" s="84" t="s">
         <v>272</v>
       </c>
       <c r="M68" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="N68" s="196"/>
+      <c r="N68" s="198"/>
     </row>
     <row r="69" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="190"/>
-      <c r="C69" s="209"/>
-      <c r="D69" s="190"/>
-      <c r="E69" s="190"/>
-      <c r="F69" s="190"/>
-      <c r="G69" s="190"/>
-      <c r="H69" s="190"/>
-      <c r="I69" s="190"/>
-      <c r="J69" s="190"/>
-      <c r="K69" s="190"/>
+      <c r="B69" s="192"/>
+      <c r="C69" s="211"/>
+      <c r="D69" s="192"/>
+      <c r="E69" s="192"/>
+      <c r="F69" s="192"/>
+      <c r="G69" s="192"/>
+      <c r="H69" s="192"/>
+      <c r="I69" s="192"/>
+      <c r="J69" s="192"/>
+      <c r="K69" s="192"/>
       <c r="L69" s="84" t="s">
         <v>273</v>
       </c>
       <c r="M69" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="N69" s="196"/>
+      <c r="N69" s="198"/>
     </row>
     <row r="70" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="190"/>
-      <c r="C70" s="209"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="190"/>
-      <c r="F70" s="190"/>
-      <c r="G70" s="190"/>
-      <c r="H70" s="190"/>
-      <c r="I70" s="190"/>
-      <c r="J70" s="190"/>
-      <c r="K70" s="190"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="211"/>
+      <c r="D70" s="192"/>
+      <c r="E70" s="192"/>
+      <c r="F70" s="192"/>
+      <c r="G70" s="192"/>
+      <c r="H70" s="192"/>
+      <c r="I70" s="192"/>
+      <c r="J70" s="192"/>
+      <c r="K70" s="192"/>
       <c r="L70" s="84" t="s">
         <v>274</v>
       </c>
       <c r="M70" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="N70" s="196"/>
+      <c r="N70" s="198"/>
     </row>
     <row r="71" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="190"/>
-      <c r="C71" s="209"/>
-      <c r="D71" s="190"/>
-      <c r="E71" s="190"/>
-      <c r="F71" s="190"/>
-      <c r="G71" s="190"/>
-      <c r="H71" s="190"/>
-      <c r="I71" s="190"/>
-      <c r="J71" s="190"/>
-      <c r="K71" s="190"/>
+      <c r="B71" s="192"/>
+      <c r="C71" s="211"/>
+      <c r="D71" s="192"/>
+      <c r="E71" s="192"/>
+      <c r="F71" s="192"/>
+      <c r="G71" s="192"/>
+      <c r="H71" s="192"/>
+      <c r="I71" s="192"/>
+      <c r="J71" s="192"/>
+      <c r="K71" s="192"/>
       <c r="L71" s="84" t="s">
         <v>275</v>
       </c>
       <c r="M71" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="N71" s="196"/>
+      <c r="N71" s="198"/>
     </row>
     <row r="72" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="190"/>
-      <c r="C72" s="209"/>
-      <c r="D72" s="190"/>
-      <c r="E72" s="190"/>
-      <c r="F72" s="190"/>
-      <c r="G72" s="190"/>
-      <c r="H72" s="190"/>
-      <c r="I72" s="190"/>
-      <c r="J72" s="190"/>
-      <c r="K72" s="190"/>
+      <c r="B72" s="192"/>
+      <c r="C72" s="211"/>
+      <c r="D72" s="192"/>
+      <c r="E72" s="192"/>
+      <c r="F72" s="192"/>
+      <c r="G72" s="192"/>
+      <c r="H72" s="192"/>
+      <c r="I72" s="192"/>
+      <c r="J72" s="192"/>
+      <c r="K72" s="192"/>
       <c r="L72" s="84" t="s">
         <v>276</v>
       </c>
       <c r="M72" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="N72" s="196"/>
+      <c r="N72" s="198"/>
     </row>
     <row r="73" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="190"/>
-      <c r="C73" s="209"/>
-      <c r="D73" s="190"/>
-      <c r="E73" s="190"/>
-      <c r="F73" s="190"/>
-      <c r="G73" s="190"/>
-      <c r="H73" s="190"/>
-      <c r="I73" s="190"/>
-      <c r="J73" s="190"/>
-      <c r="K73" s="190"/>
+      <c r="B73" s="192"/>
+      <c r="C73" s="211"/>
+      <c r="D73" s="192"/>
+      <c r="E73" s="192"/>
+      <c r="F73" s="192"/>
+      <c r="G73" s="192"/>
+      <c r="H73" s="192"/>
+      <c r="I73" s="192"/>
+      <c r="J73" s="192"/>
+      <c r="K73" s="192"/>
       <c r="L73" s="84" t="s">
         <v>285</v>
       </c>
       <c r="M73" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="N73" s="196"/>
+      <c r="N73" s="198"/>
     </row>
     <row r="74" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="191"/>
-      <c r="C74" s="217"/>
-      <c r="D74" s="194"/>
-      <c r="E74" s="194"/>
-      <c r="F74" s="194"/>
-      <c r="G74" s="194"/>
-      <c r="H74" s="194"/>
-      <c r="I74" s="194"/>
-      <c r="J74" s="194"/>
-      <c r="K74" s="194"/>
-      <c r="L74" s="181"/>
-      <c r="M74" s="182"/>
-      <c r="N74" s="197"/>
+      <c r="B74" s="193"/>
+      <c r="C74" s="219"/>
+      <c r="D74" s="196"/>
+      <c r="E74" s="196"/>
+      <c r="F74" s="196"/>
+      <c r="G74" s="196"/>
+      <c r="H74" s="196"/>
+      <c r="I74" s="196"/>
+      <c r="J74" s="196"/>
+      <c r="K74" s="196"/>
+      <c r="L74" s="183"/>
+      <c r="M74" s="184"/>
+      <c r="N74" s="199"/>
     </row>
     <row r="75" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B75" s="1"/>
@@ -14901,8 +14923,8 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="204"/>
-      <c r="M75" s="180"/>
+      <c r="L75" s="206"/>
+      <c r="M75" s="182"/>
       <c r="N75" s="8"/>
     </row>
     <row r="76" spans="2:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14923,10 +14945,10 @@
       <c r="I76" s="24"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="181" t="s">
+      <c r="L76" s="183" t="s">
         <v>324</v>
       </c>
-      <c r="M76" s="182"/>
+      <c r="M76" s="184"/>
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14947,10 +14969,10 @@
       <c r="I77" s="67"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
-      <c r="L77" s="203" t="s">
+      <c r="L77" s="205" t="s">
         <v>449</v>
       </c>
-      <c r="M77" s="199"/>
+      <c r="M77" s="201"/>
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -14971,10 +14993,10 @@
       <c r="I78" s="67"/>
       <c r="J78" s="25"/>
       <c r="K78" s="25"/>
-      <c r="L78" s="203" t="s">
+      <c r="L78" s="205" t="s">
         <v>450</v>
       </c>
-      <c r="M78" s="199"/>
+      <c r="M78" s="201"/>
       <c r="N78" s="29"/>
     </row>
     <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -14995,10 +15017,10 @@
       <c r="I79" s="67"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
-      <c r="L79" s="203" t="s">
+      <c r="L79" s="205" t="s">
         <v>451</v>
       </c>
-      <c r="M79" s="199"/>
+      <c r="M79" s="201"/>
       <c r="N79" s="29"/>
     </row>
     <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -15019,10 +15041,10 @@
       <c r="I80" s="35"/>
       <c r="J80" s="34"/>
       <c r="K80" s="34"/>
-      <c r="L80" s="203" t="s">
+      <c r="L80" s="205" t="s">
         <v>452</v>
       </c>
-      <c r="M80" s="199"/>
+      <c r="M80" s="201"/>
       <c r="N80" s="29"/>
     </row>
     <row r="81" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15043,10 +15065,10 @@
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
-      <c r="L81" s="203" t="s">
+      <c r="L81" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="M81" s="199"/>
+      <c r="M81" s="201"/>
       <c r="N81" s="29"/>
     </row>
     <row r="82" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -15062,8 +15084,8 @@
       <c r="I82" s="134"/>
       <c r="J82" s="134"/>
       <c r="K82" s="134"/>
-      <c r="L82" s="179"/>
-      <c r="M82" s="180"/>
+      <c r="L82" s="181"/>
+      <c r="M82" s="182"/>
       <c r="N82" s="8"/>
     </row>
     <row r="83" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -15084,30 +15106,30 @@
       <c r="I83" s="35"/>
       <c r="J83" s="34"/>
       <c r="K83" s="34"/>
-      <c r="L83" s="181" t="s">
+      <c r="L83" s="183" t="s">
         <v>249</v>
       </c>
-      <c r="M83" s="182"/>
+      <c r="M83" s="184"/>
       <c r="N83" s="27" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="84" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B84" s="1"/>
-      <c r="C84" s="220" t="s">
+      <c r="C84" s="222" t="s">
         <v>453</v>
       </c>
-      <c r="D84" s="221"/>
-      <c r="E84" s="221"/>
-      <c r="F84" s="221"/>
-      <c r="G84" s="221"/>
-      <c r="H84" s="221"/>
-      <c r="I84" s="221"/>
-      <c r="J84" s="221"/>
-      <c r="K84" s="221"/>
-      <c r="L84" s="221"/>
-      <c r="M84" s="221"/>
-      <c r="N84" s="222"/>
+      <c r="D84" s="223"/>
+      <c r="E84" s="223"/>
+      <c r="F84" s="223"/>
+      <c r="G84" s="223"/>
+      <c r="H84" s="223"/>
+      <c r="I84" s="223"/>
+      <c r="J84" s="223"/>
+      <c r="K84" s="223"/>
+      <c r="L84" s="223"/>
+      <c r="M84" s="223"/>
+      <c r="N84" s="224"/>
     </row>
     <row r="85" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1">
@@ -15127,10 +15149,10 @@
       <c r="I85" s="24"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
-      <c r="L85" s="219" t="s">
+      <c r="L85" s="221" t="s">
         <v>455</v>
       </c>
-      <c r="M85" s="182"/>
+      <c r="M85" s="184"/>
       <c r="N85" s="135" t="s">
         <v>465</v>
       </c>
@@ -15153,10 +15175,10 @@
       <c r="I86" s="24"/>
       <c r="J86" s="25"/>
       <c r="K86" s="25"/>
-      <c r="L86" s="203" t="s">
+      <c r="L86" s="205" t="s">
         <v>466</v>
       </c>
-      <c r="M86" s="182"/>
+      <c r="M86" s="184"/>
       <c r="N86" s="29"/>
     </row>
     <row r="87" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -15177,10 +15199,10 @@
       <c r="I87" s="46"/>
       <c r="J87" s="25"/>
       <c r="K87" s="25"/>
-      <c r="L87" s="203" t="s">
+      <c r="L87" s="205" t="s">
         <v>469</v>
       </c>
-      <c r="M87" s="182"/>
+      <c r="M87" s="184"/>
       <c r="N87" s="29"/>
     </row>
     <row r="88" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15201,10 +15223,10 @@
       </c>
       <c r="J88" s="34"/>
       <c r="K88" s="34"/>
-      <c r="L88" s="203" t="s">
+      <c r="L88" s="205" t="s">
         <v>470</v>
       </c>
-      <c r="M88" s="182"/>
+      <c r="M88" s="184"/>
       <c r="N88" s="29"/>
     </row>
     <row r="89" spans="2:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15225,28 +15247,28 @@
       </c>
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
-      <c r="L89" s="203" t="s">
+      <c r="L89" s="205" t="s">
         <v>471</v>
       </c>
-      <c r="M89" s="182"/>
+      <c r="M89" s="184"/>
       <c r="N89" s="48"/>
     </row>
     <row r="90" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B90" s="1"/>
-      <c r="C90" s="220" t="s">
+      <c r="C90" s="222" t="s">
         <v>460</v>
       </c>
-      <c r="D90" s="221"/>
-      <c r="E90" s="221"/>
-      <c r="F90" s="221"/>
-      <c r="G90" s="221"/>
-      <c r="H90" s="221"/>
-      <c r="I90" s="221"/>
-      <c r="J90" s="221"/>
-      <c r="K90" s="221"/>
-      <c r="L90" s="221"/>
-      <c r="M90" s="221"/>
-      <c r="N90" s="222"/>
+      <c r="D90" s="223"/>
+      <c r="E90" s="223"/>
+      <c r="F90" s="223"/>
+      <c r="G90" s="223"/>
+      <c r="H90" s="223"/>
+      <c r="I90" s="223"/>
+      <c r="J90" s="223"/>
+      <c r="K90" s="223"/>
+      <c r="L90" s="223"/>
+      <c r="M90" s="223"/>
+      <c r="N90" s="224"/>
     </row>
     <row r="91" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1">
@@ -15266,10 +15288,10 @@
       <c r="I91" s="24"/>
       <c r="J91" s="25"/>
       <c r="K91" s="25"/>
-      <c r="L91" s="181" t="s">
+      <c r="L91" s="183" t="s">
         <v>467</v>
       </c>
-      <c r="M91" s="218"/>
+      <c r="M91" s="220"/>
       <c r="N91" s="29"/>
     </row>
     <row r="92" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15290,10 +15312,10 @@
       <c r="I92" s="35"/>
       <c r="J92" s="34"/>
       <c r="K92" s="34"/>
-      <c r="L92" s="181" t="s">
+      <c r="L92" s="183" t="s">
         <v>468</v>
       </c>
-      <c r="M92" s="218"/>
+      <c r="M92" s="220"/>
       <c r="N92" s="29"/>
     </row>
     <row r="93" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15314,10 +15336,10 @@
       <c r="I93" s="35"/>
       <c r="J93" s="34"/>
       <c r="K93" s="34"/>
-      <c r="L93" s="219" t="s">
+      <c r="L93" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="M93" s="218"/>
+      <c r="M93" s="220"/>
       <c r="N93" s="29"/>
     </row>
     <row r="94" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15338,10 +15360,10 @@
       <c r="I94" s="35"/>
       <c r="J94" s="34"/>
       <c r="K94" s="34"/>
-      <c r="L94" s="216" t="s">
+      <c r="L94" s="218" t="s">
         <v>472</v>
       </c>
-      <c r="M94" s="199"/>
+      <c r="M94" s="201"/>
       <c r="N94" s="29"/>
     </row>
   </sheetData>
@@ -15472,9 +15494,9 @@
     <hyperlink ref="L3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="40" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="8" scale="65" fitToHeight="0" orientation="landscape" r:id="rId4"/>
   <headerFooter>
-    <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_9_(Web・AP) &amp;P / &amp;N ページ</oddFooter>
+    <oddFooter>&amp;C【Appendix】IT Automation HA configuration installation manual_9_(Web・AP) &amp;P / &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="36" max="13" man="1"/>
@@ -15524,41 +15546,41 @@
       <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="156" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA conf.(External storage)</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="158"/>
       <c r="O3" s="20"/>
       <c r="P3" s="19"/>
     </row>
@@ -15650,33 +15672,33 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="158" t="s">
+      <c r="C9" s="163"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="157" t="s">
+      <c r="F9" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="150" t="s">
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="152" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="159"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="161"/>
       <c r="F10" s="73" t="s">
         <v>36</v>
       </c>
@@ -15701,14 +15723,14 @@
       <c r="M10" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="151"/>
+      <c r="N10" s="153"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
       <c r="E11" s="56">
         <v>777</v>
       </c>
@@ -15733,11 +15755,11 @@
       <c r="N11" s="68"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="149"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
       <c r="E12" s="56">
         <v>777</v>
       </c>
@@ -15760,11 +15782,11 @@
       <c r="N12" s="68"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="56">
         <v>777</v>
       </c>
@@ -15785,11 +15807,11 @@
       <c r="N13" s="68"/>
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="56">
         <v>777</v>
       </c>
@@ -15810,11 +15832,11 @@
       <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="149"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="56">
         <v>777</v>
       </c>
@@ -15831,11 +15853,11 @@
       <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="149"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151"/>
       <c r="E16" s="56">
         <v>777</v>
       </c>
@@ -15854,11 +15876,11 @@
       <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="149"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
       <c r="E17" s="56">
         <v>777</v>
       </c>
@@ -15877,11 +15899,11 @@
       <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="56">
         <v>777</v>
       </c>
@@ -15900,11 +15922,11 @@
       <c r="N18" s="68"/>
     </row>
     <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="56">
         <v>755</v>
       </c>
@@ -15923,11 +15945,11 @@
       <c r="N19" s="68"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="147" t="s">
+      <c r="B20" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="56">
         <v>755</v>
       </c>
@@ -15946,11 +15968,11 @@
       <c r="N20" s="68"/>
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="56">
         <v>755</v>
       </c>
@@ -15969,11 +15991,11 @@
       <c r="N21" s="68"/>
     </row>
     <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="148"/>
-      <c r="D22" s="149"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
       <c r="E22" s="56">
         <v>755</v>
       </c>
@@ -15992,11 +16014,11 @@
       <c r="N22" s="68"/>
     </row>
     <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="56">
         <v>777</v>
       </c>
@@ -16054,9 +16076,9 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_1_(外部ストレージ) &amp;P / &amp;N ページ</oddFooter>
+    <oddFooter xml:space="preserve">&amp;C【Appendix】IT Automation HA configuration manual_1_(External storage) &amp;P / &amp;N </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -16100,18 +16122,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="19" t="s">
         <v>113</v>
       </c>
@@ -16119,19 +16141,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="156" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration (DBMS)</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="52" t="s">
         <v>19</v>
       </c>
@@ -16235,33 +16257,33 @@
       <c r="N9" s="19"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="185" t="s">
+      <c r="C10" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="187" t="s">
+      <c r="D10" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="175" t="s">
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="176"/>
-      <c r="N10" s="169" t="s">
+      <c r="M10" s="178"/>
+      <c r="N10" s="171" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="184"/>
-      <c r="C11" s="186"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="4" t="s">
         <v>117</v>
       </c>
@@ -16286,9 +16308,9 @@
       <c r="K11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="177"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="170"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="172"/>
     </row>
     <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -16303,8 +16325,8 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="180"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="182"/>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16312,23 +16334,23 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="172" t="s">
+      <c r="D13" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="181" t="s">
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="183" t="s">
         <v>250</v>
       </c>
-      <c r="M13" s="182"/>
+      <c r="M13" s="184"/>
       <c r="N13" s="16" t="s">
         <v>254</v>
       </c>
@@ -16338,19 +16360,19 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="167"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="181" t="s">
+      <c r="C14" s="169"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="182"/>
+      <c r="M14" s="184"/>
       <c r="N14" s="26"/>
     </row>
     <row r="15" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16358,19 +16380,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="181" t="s">
+      <c r="C15" s="170"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="182"/>
+      <c r="M15" s="184"/>
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -16386,8 +16408,8 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="180"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="182"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16408,10 +16430,10 @@
       <c r="I17" s="71"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="181" t="s">
+      <c r="L17" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="182"/>
+      <c r="M17" s="184"/>
       <c r="N17" s="27" t="s">
         <v>132</v>
       </c>
@@ -16429,8 +16451,8 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="180"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="182"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16451,99 +16473,99 @@
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="198" t="s">
+      <c r="L19" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="182"/>
+      <c r="M19" s="184"/>
       <c r="N19" s="29" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="189">
+      <c r="B20" s="191">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="166" t="s">
+      <c r="C20" s="168" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="172" t="s">
+      <c r="D20" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="181" t="s">
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="182"/>
-      <c r="N20" s="195"/>
+      <c r="M20" s="184"/>
+      <c r="N20" s="197"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="190">
+      <c r="B21" s="192">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="192"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
       <c r="L21" s="82" t="s">
         <v>135</v>
       </c>
       <c r="M21" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="N21" s="196"/>
+      <c r="N21" s="198"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="190">
+      <c r="B22" s="192">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="192"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="192"/>
       <c r="L22" s="84" t="s">
         <v>138</v>
       </c>
       <c r="M22" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="196"/>
+      <c r="N22" s="198"/>
     </row>
     <row r="23" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="191">
+      <c r="B23" s="193">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="197"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="199"/>
     </row>
     <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -16580,10 +16602,10 @@
       <c r="I25" s="71"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="181" t="s">
+      <c r="L25" s="183" t="s">
         <v>142</v>
       </c>
-      <c r="M25" s="199"/>
+      <c r="M25" s="201"/>
       <c r="N25" s="27" t="s">
         <v>143</v>
       </c>
@@ -16593,7 +16615,7 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="166" t="s">
+      <c r="C26" s="168" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="71" t="s">
@@ -16606,10 +16628,10 @@
       <c r="I26" s="71"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="181" t="s">
+      <c r="L26" s="183" t="s">
         <v>146</v>
       </c>
-      <c r="M26" s="199"/>
+      <c r="M26" s="201"/>
       <c r="N26" s="27" t="s">
         <v>144</v>
       </c>
@@ -16619,7 +16641,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="167"/>
+      <c r="C27" s="169"/>
       <c r="D27" s="71" t="s">
         <v>5</v>
       </c>
@@ -16630,10 +16652,10 @@
       <c r="I27" s="71"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="181" t="s">
+      <c r="L27" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="199"/>
+      <c r="M27" s="201"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16641,7 +16663,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="168"/>
+      <c r="C28" s="170"/>
       <c r="D28" s="71" t="s">
         <v>5</v>
       </c>
@@ -16652,10 +16674,10 @@
       <c r="I28" s="71"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="181" t="s">
+      <c r="L28" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="M28" s="199"/>
+      <c r="M28" s="201"/>
       <c r="N28" s="27" t="s">
         <v>148</v>
       </c>
@@ -16678,10 +16700,10 @@
       <c r="I29" s="71"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="181" t="s">
+      <c r="L29" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="199"/>
+      <c r="M29" s="201"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16702,10 +16724,10 @@
       <c r="I30" s="71"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="181" t="s">
+      <c r="L30" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="M30" s="199"/>
+      <c r="M30" s="201"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16726,10 +16748,10 @@
       <c r="I31" s="71"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="181" t="s">
+      <c r="L31" s="183" t="s">
         <v>153</v>
       </c>
-      <c r="M31" s="199"/>
+      <c r="M31" s="201"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16750,10 +16772,10 @@
       <c r="I32" s="35"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
-      <c r="L32" s="181" t="s">
+      <c r="L32" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="M32" s="199"/>
+      <c r="M32" s="201"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -16769,8 +16791,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="180"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="182"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16791,10 +16813,10 @@
       <c r="I34" s="71"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="200" t="s">
+      <c r="L34" s="202" t="s">
         <v>169</v>
       </c>
-      <c r="M34" s="182"/>
+      <c r="M34" s="184"/>
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16815,10 +16837,10 @@
       <c r="I35" s="71"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
-      <c r="L35" s="200" t="s">
+      <c r="L35" s="202" t="s">
         <v>170</v>
       </c>
-      <c r="M35" s="182"/>
+      <c r="M35" s="184"/>
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16839,10 +16861,10 @@
       <c r="I36" s="71"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
-      <c r="L36" s="200" t="s">
+      <c r="L36" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="M36" s="182"/>
+      <c r="M36" s="184"/>
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16863,10 +16885,10 @@
       <c r="I37" s="71"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="200" t="s">
+      <c r="L37" s="202" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="182"/>
+      <c r="M37" s="184"/>
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16887,10 +16909,10 @@
       <c r="I38" s="71"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="181" t="s">
+      <c r="L38" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="182"/>
+      <c r="M38" s="184"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16911,10 +16933,10 @@
       <c r="I39" s="71"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="181" t="s">
+      <c r="L39" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16935,10 +16957,10 @@
       <c r="I40" s="71"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="181" t="s">
+      <c r="L40" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="M40" s="201"/>
+      <c r="M40" s="203"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16961,10 +16983,10 @@
       <c r="I41" s="71"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="181" t="s">
+      <c r="L41" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="M41" s="199"/>
+      <c r="M41" s="201"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -16987,10 +17009,10 @@
         <v>5</v>
       </c>
       <c r="K42" s="25"/>
-      <c r="L42" s="181" t="s">
+      <c r="L42" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="M42" s="199"/>
+      <c r="M42" s="201"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -17013,10 +17035,10 @@
       <c r="K43" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="181" t="s">
+      <c r="L43" s="183" t="s">
         <v>177</v>
       </c>
-      <c r="M43" s="199"/>
+      <c r="M43" s="201"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17037,10 +17059,10 @@
       <c r="I44" s="71"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="181" t="s">
+      <c r="L44" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="M44" s="199"/>
+      <c r="M44" s="201"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17061,10 +17083,10 @@
       <c r="I45" s="35"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
-      <c r="L45" s="181" t="s">
+      <c r="L45" s="183" t="s">
         <v>179</v>
       </c>
-      <c r="M45" s="199"/>
+      <c r="M45" s="201"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17087,10 +17109,10 @@
       <c r="I46" s="35"/>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
-      <c r="L46" s="181" t="s">
+      <c r="L46" s="183" t="s">
         <v>180</v>
       </c>
-      <c r="M46" s="199"/>
+      <c r="M46" s="201"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17111,10 +17133,10 @@
       <c r="I47" s="72"/>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
-      <c r="L47" s="181" t="s">
+      <c r="L47" s="183" t="s">
         <v>183</v>
       </c>
-      <c r="M47" s="199"/>
+      <c r="M47" s="201"/>
       <c r="N47" s="36"/>
     </row>
     <row r="48" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17135,10 +17157,10 @@
       </c>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="181" t="s">
+      <c r="L48" s="183" t="s">
         <v>184</v>
       </c>
-      <c r="M48" s="199"/>
+      <c r="M48" s="201"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17159,10 +17181,10 @@
         <v>5</v>
       </c>
       <c r="K49" s="25"/>
-      <c r="L49" s="181" t="s">
+      <c r="L49" s="183" t="s">
         <v>182</v>
       </c>
-      <c r="M49" s="199"/>
+      <c r="M49" s="201"/>
       <c r="N49" s="29"/>
     </row>
     <row r="50" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17183,10 +17205,10 @@
       <c r="K50" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L50" s="181" t="s">
+      <c r="L50" s="183" t="s">
         <v>181</v>
       </c>
-      <c r="M50" s="199"/>
+      <c r="M50" s="201"/>
       <c r="N50" s="29"/>
     </row>
   </sheetData>
@@ -17259,9 +17281,9 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_2_(DBMS) &amp;P / &amp;N ページ</oddFooter>
+    <oddFooter>&amp;C【Appendix】IT Automation HA configuration installation manual_2_(DBMS) &amp;P / &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="32" max="13" man="1"/>
@@ -17309,18 +17331,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="19" t="s">
         <v>185</v>
       </c>
@@ -17328,19 +17350,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="156" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration (backyard)</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="53" t="s">
         <v>186</v>
       </c>
@@ -17461,33 +17483,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="187" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="175" t="s">
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="M11" s="176"/>
-      <c r="N11" s="169" t="s">
+      <c r="M11" s="178"/>
+      <c r="N11" s="171" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="4" t="s">
         <v>117</v>
       </c>
@@ -17512,9 +17534,9 @@
       <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="170"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="172"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -17529,8 +17551,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="180"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="182"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17538,23 +17560,23 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="172" t="s">
+      <c r="D14" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="181" t="s">
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="M14" s="182"/>
+      <c r="M14" s="184"/>
       <c r="N14" s="16" t="s">
         <v>255</v>
       </c>
@@ -17564,19 +17586,19 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="181" t="s">
+      <c r="C15" s="169"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="199"/>
+      <c r="M15" s="201"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17584,19 +17606,19 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="181" t="s">
+      <c r="C16" s="169"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="183" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="199"/>
+      <c r="M16" s="201"/>
       <c r="N16" s="26"/>
     </row>
     <row r="17" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17604,19 +17626,19 @@
         <f>MAX(B$11:B16)+1</f>
         <v>4</v>
       </c>
-      <c r="C17" s="168"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="181" t="s">
+      <c r="C17" s="170"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="M17" s="199"/>
+      <c r="M17" s="201"/>
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -17654,10 +17676,10 @@
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="181" t="s">
+      <c r="L19" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="199"/>
+      <c r="M19" s="201"/>
       <c r="N19" s="27" t="s">
         <v>389</v>
       </c>
@@ -17697,10 +17719,10 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="181" t="s">
+      <c r="L21" s="183" t="s">
         <v>252</v>
       </c>
-      <c r="M21" s="182"/>
+      <c r="M21" s="184"/>
       <c r="N21" s="27" t="s">
         <v>392</v>
       </c>
@@ -17723,10 +17745,10 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="181" t="s">
+      <c r="L22" s="183" t="s">
         <v>256</v>
       </c>
-      <c r="M22" s="182"/>
+      <c r="M22" s="184"/>
       <c r="N22" s="27" t="s">
         <v>394</v>
       </c>
@@ -17749,10 +17771,10 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="181" t="s">
+      <c r="L23" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="182"/>
+      <c r="M23" s="184"/>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17760,23 +17782,23 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="173" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="172" t="s">
+      <c r="D24" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="181" t="s">
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="182"/>
+      <c r="M24" s="184"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="2:14" ht="54" x14ac:dyDescent="0.15">
@@ -17784,19 +17806,19 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="181" t="s">
+      <c r="C25" s="169"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="183" t="s">
         <v>258</v>
       </c>
-      <c r="M25" s="182"/>
+      <c r="M25" s="184"/>
       <c r="N25" s="27" t="s">
         <v>257</v>
       </c>
@@ -17806,23 +17828,23 @@
         <f>MAX(B$11:B25)+1</f>
         <v>11</v>
       </c>
-      <c r="C26" s="171" t="s">
+      <c r="C26" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="172" t="s">
+      <c r="D26" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="181" t="s">
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="183" t="s">
         <v>259</v>
       </c>
-      <c r="M26" s="182"/>
+      <c r="M26" s="184"/>
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -17830,19 +17852,19 @@
         <f>MAX(B$11:B26)+1</f>
         <v>12</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="181" t="s">
+      <c r="C27" s="169"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="183" t="s">
         <v>260</v>
       </c>
-      <c r="M27" s="182"/>
+      <c r="M27" s="184"/>
       <c r="N27" s="27" t="s">
         <v>261</v>
       </c>
@@ -17860,8 +17882,8 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="180"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="182"/>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17882,10 +17904,10 @@
       <c r="I29" s="24"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="181" t="s">
+      <c r="L29" s="183" t="s">
         <v>263</v>
       </c>
-      <c r="M29" s="199"/>
+      <c r="M29" s="201"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17906,10 +17928,10 @@
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="181" t="s">
+      <c r="L30" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="M30" s="199"/>
+      <c r="M30" s="201"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17930,10 +17952,10 @@
       <c r="I31" s="35"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
-      <c r="L31" s="181" t="s">
+      <c r="L31" s="183" t="s">
         <v>264</v>
       </c>
-      <c r="M31" s="199"/>
+      <c r="M31" s="201"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -17949,8 +17971,8 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="180"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="182"/>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17971,10 +17993,10 @@
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="200" t="s">
+      <c r="L33" s="202" t="s">
         <v>265</v>
       </c>
-      <c r="M33" s="182"/>
+      <c r="M33" s="184"/>
       <c r="N33" s="29"/>
     </row>
     <row r="34" spans="2:14" ht="156" customHeight="1" x14ac:dyDescent="0.15">
@@ -17995,221 +18017,221 @@
       <c r="I34" s="75"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="200" t="s">
+      <c r="L34" s="202" t="s">
         <v>269</v>
       </c>
-      <c r="M34" s="182"/>
+      <c r="M34" s="184"/>
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="189">
+      <c r="B35" s="191">
         <f>MAX(B$11:B34)+1</f>
         <v>18</v>
       </c>
-      <c r="C35" s="171" t="s">
+      <c r="C35" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="172" t="s">
+      <c r="D35" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="181" t="s">
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="183" t="s">
         <v>373</v>
       </c>
-      <c r="M35" s="182"/>
-      <c r="N35" s="195"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="197"/>
     </row>
     <row r="36" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="190"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
+      <c r="B36" s="192"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="192"/>
       <c r="L36" s="82" t="s">
         <v>267</v>
       </c>
       <c r="M36" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="N36" s="196"/>
+      <c r="N36" s="198"/>
     </row>
     <row r="37" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="190"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="190"/>
+      <c r="B37" s="192"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="192"/>
+      <c r="K37" s="192"/>
       <c r="L37" s="84" t="s">
         <v>270</v>
       </c>
       <c r="M37" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="N37" s="196"/>
+      <c r="N37" s="198"/>
     </row>
     <row r="38" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="190"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="192"/>
+      <c r="K38" s="192"/>
       <c r="L38" s="84" t="s">
         <v>271</v>
       </c>
       <c r="M38" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="N38" s="196"/>
+      <c r="N38" s="198"/>
     </row>
     <row r="39" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="190"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="192"/>
       <c r="L39" s="84" t="s">
         <v>272</v>
       </c>
       <c r="M39" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="N39" s="196"/>
+      <c r="N39" s="198"/>
     </row>
     <row r="40" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="190"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="190"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="190"/>
-      <c r="J40" s="190"/>
-      <c r="K40" s="190"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="192"/>
+      <c r="K40" s="192"/>
       <c r="L40" s="84" t="s">
         <v>273</v>
       </c>
       <c r="M40" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="N40" s="196"/>
+      <c r="N40" s="198"/>
     </row>
     <row r="41" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="190"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="190"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="192"/>
       <c r="L41" s="84" t="s">
         <v>274</v>
       </c>
       <c r="M41" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="N41" s="196"/>
+      <c r="N41" s="198"/>
     </row>
     <row r="42" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="190"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="192"/>
       <c r="L42" s="84" t="s">
         <v>275</v>
       </c>
       <c r="M42" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="N42" s="196"/>
+      <c r="N42" s="198"/>
     </row>
     <row r="43" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="190"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="190"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="190"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="190"/>
+      <c r="B43" s="192"/>
+      <c r="C43" s="194"/>
+      <c r="D43" s="192"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="192"/>
+      <c r="G43" s="192"/>
+      <c r="H43" s="192"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="192"/>
+      <c r="K43" s="192"/>
       <c r="L43" s="84" t="s">
         <v>276</v>
       </c>
       <c r="M43" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="N43" s="196"/>
+      <c r="N43" s="198"/>
     </row>
     <row r="44" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="190"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="190"/>
-      <c r="K44" s="190"/>
+      <c r="B44" s="192"/>
+      <c r="C44" s="194"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="192"/>
       <c r="L44" s="84" t="s">
         <v>285</v>
       </c>
       <c r="M44" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="N44" s="196"/>
+      <c r="N44" s="198"/>
     </row>
     <row r="45" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="191"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="194"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="194"/>
-      <c r="L45" s="181"/>
-      <c r="M45" s="182"/>
-      <c r="N45" s="197"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="196"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="184"/>
+      <c r="N45" s="199"/>
     </row>
     <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="1">
@@ -18229,10 +18251,10 @@
       <c r="I46" s="24"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="181" t="s">
+      <c r="L46" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="M46" s="199"/>
+      <c r="M46" s="201"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18253,10 +18275,10 @@
       <c r="I47" s="24"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="181" t="s">
+      <c r="L47" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="M47" s="199"/>
+      <c r="M47" s="201"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18277,10 +18299,10 @@
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="181" t="s">
+      <c r="L48" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="M48" s="199"/>
+      <c r="M48" s="201"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18301,10 +18323,10 @@
       <c r="I49" s="28"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="181" t="s">
+      <c r="L49" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="M49" s="199"/>
+      <c r="M49" s="201"/>
       <c r="N49" s="29"/>
     </row>
     <row r="50" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18325,10 +18347,10 @@
       <c r="I50" s="28"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="181" t="s">
+      <c r="L50" s="183" t="s">
         <v>291</v>
       </c>
-      <c r="M50" s="199"/>
+      <c r="M50" s="201"/>
       <c r="N50" s="29"/>
     </row>
     <row r="51" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18349,10 +18371,10 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="202" t="s">
+      <c r="L51" s="204" t="s">
         <v>292</v>
       </c>
-      <c r="M51" s="199"/>
+      <c r="M51" s="201"/>
       <c r="N51" s="45"/>
     </row>
     <row r="52" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18373,10 +18395,10 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="202" t="s">
+      <c r="L52" s="204" t="s">
         <v>293</v>
       </c>
-      <c r="M52" s="199"/>
+      <c r="M52" s="201"/>
       <c r="N52" s="45"/>
     </row>
     <row r="53" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18399,10 +18421,10 @@
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="202" t="s">
+      <c r="L53" s="204" t="s">
         <v>294</v>
       </c>
-      <c r="M53" s="199"/>
+      <c r="M53" s="201"/>
       <c r="N53" s="45"/>
     </row>
     <row r="54" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18425,10 +18447,10 @@
         <v>5</v>
       </c>
       <c r="K54" s="25"/>
-      <c r="L54" s="202" t="s">
+      <c r="L54" s="204" t="s">
         <v>295</v>
       </c>
-      <c r="M54" s="199"/>
+      <c r="M54" s="201"/>
       <c r="N54" s="45"/>
     </row>
     <row r="55" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18451,10 +18473,10 @@
       <c r="K55" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L55" s="202" t="s">
+      <c r="L55" s="204" t="s">
         <v>296</v>
       </c>
-      <c r="M55" s="199"/>
+      <c r="M55" s="201"/>
       <c r="N55" s="45"/>
     </row>
     <row r="56" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18475,10 +18497,10 @@
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
-      <c r="L56" s="202" t="s">
+      <c r="L56" s="204" t="s">
         <v>297</v>
       </c>
-      <c r="M56" s="199"/>
+      <c r="M56" s="201"/>
       <c r="N56" s="45"/>
     </row>
     <row r="57" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18499,10 +18521,10 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="202" t="s">
+      <c r="L57" s="204" t="s">
         <v>298</v>
       </c>
-      <c r="M57" s="199"/>
+      <c r="M57" s="201"/>
       <c r="N57" s="45"/>
     </row>
     <row r="58" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18525,10 +18547,10 @@
       <c r="I58" s="34"/>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
-      <c r="L58" s="202" t="s">
+      <c r="L58" s="204" t="s">
         <v>299</v>
       </c>
-      <c r="M58" s="199"/>
+      <c r="M58" s="201"/>
       <c r="N58" s="45"/>
     </row>
     <row r="59" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18549,10 +18571,10 @@
       <c r="I59" s="34"/>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
-      <c r="L59" s="202" t="s">
+      <c r="L59" s="204" t="s">
         <v>300</v>
       </c>
-      <c r="M59" s="199"/>
+      <c r="M59" s="201"/>
       <c r="N59" s="45"/>
     </row>
     <row r="60" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18573,10 +18595,10 @@
       </c>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="202" t="s">
+      <c r="L60" s="204" t="s">
         <v>301</v>
       </c>
-      <c r="M60" s="199"/>
+      <c r="M60" s="201"/>
       <c r="N60" s="45"/>
     </row>
     <row r="61" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18597,10 +18619,10 @@
         <v>5</v>
       </c>
       <c r="K61" s="25"/>
-      <c r="L61" s="202" t="s">
+      <c r="L61" s="204" t="s">
         <v>302</v>
       </c>
-      <c r="M61" s="199"/>
+      <c r="M61" s="201"/>
       <c r="N61" s="45"/>
     </row>
     <row r="62" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18621,10 +18643,10 @@
       <c r="K62" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="202" t="s">
+      <c r="L62" s="204" t="s">
         <v>303</v>
       </c>
-      <c r="M62" s="199"/>
+      <c r="M62" s="201"/>
       <c r="N62" s="45"/>
     </row>
     <row r="63" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -18645,10 +18667,10 @@
       <c r="I63" s="24"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
-      <c r="L63" s="181" t="s">
+      <c r="L63" s="183" t="s">
         <v>309</v>
       </c>
-      <c r="M63" s="199"/>
+      <c r="M63" s="201"/>
       <c r="N63" s="29" t="s">
         <v>304</v>
       </c>
@@ -18671,10 +18693,10 @@
       <c r="I64" s="24"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
-      <c r="L64" s="181" t="s">
+      <c r="L64" s="183" t="s">
         <v>305</v>
       </c>
-      <c r="M64" s="199"/>
+      <c r="M64" s="201"/>
       <c r="N64" s="29" t="s">
         <v>307</v>
       </c>
@@ -18697,10 +18719,10 @@
       <c r="I65" s="24"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
-      <c r="L65" s="181" t="s">
+      <c r="L65" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="M65" s="199"/>
+      <c r="M65" s="201"/>
       <c r="N65" s="29" t="s">
         <v>308</v>
       </c>
@@ -18718,8 +18740,8 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="179"/>
-      <c r="M66" s="180"/>
+      <c r="L66" s="181"/>
+      <c r="M66" s="182"/>
       <c r="N66" s="8"/>
     </row>
     <row r="67" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18740,10 +18762,10 @@
       <c r="I67" s="24"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="181" t="s">
+      <c r="L67" s="183" t="s">
         <v>310</v>
       </c>
-      <c r="M67" s="182"/>
+      <c r="M67" s="184"/>
       <c r="N67" s="29"/>
     </row>
     <row r="68" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -18764,10 +18786,10 @@
       <c r="I68" s="24"/>
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
-      <c r="L68" s="181" t="s">
+      <c r="L68" s="183" t="s">
         <v>311</v>
       </c>
-      <c r="M68" s="182"/>
+      <c r="M68" s="184"/>
       <c r="N68" s="29"/>
     </row>
     <row r="69" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18788,10 +18810,10 @@
       <c r="I69" s="24"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
-      <c r="L69" s="181" t="s">
+      <c r="L69" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="M69" s="182"/>
+      <c r="M69" s="184"/>
       <c r="N69" s="29"/>
     </row>
     <row r="70" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -18814,10 +18836,10 @@
       <c r="I70" s="24"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
-      <c r="L70" s="181" t="s">
+      <c r="L70" s="183" t="s">
         <v>313</v>
       </c>
-      <c r="M70" s="182"/>
+      <c r="M70" s="184"/>
       <c r="N70" s="29"/>
     </row>
     <row r="71" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -18840,10 +18862,10 @@
         <v>5</v>
       </c>
       <c r="K71" s="25"/>
-      <c r="L71" s="181" t="s">
+      <c r="L71" s="183" t="s">
         <v>314</v>
       </c>
-      <c r="M71" s="182"/>
+      <c r="M71" s="184"/>
       <c r="N71" s="29"/>
     </row>
     <row r="72" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -18866,10 +18888,10 @@
       <c r="K72" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="181" t="s">
+      <c r="L72" s="183" t="s">
         <v>315</v>
       </c>
-      <c r="M72" s="182"/>
+      <c r="M72" s="184"/>
       <c r="N72" s="29"/>
     </row>
     <row r="73" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18890,10 +18912,10 @@
       <c r="I73" s="24"/>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
-      <c r="L73" s="181" t="s">
+      <c r="L73" s="183" t="s">
         <v>316</v>
       </c>
-      <c r="M73" s="182"/>
+      <c r="M73" s="184"/>
       <c r="N73" s="29"/>
     </row>
     <row r="74" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18914,10 +18936,10 @@
       <c r="I74" s="24"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
-      <c r="L74" s="181" t="s">
+      <c r="L74" s="183" t="s">
         <v>317</v>
       </c>
-      <c r="M74" s="182"/>
+      <c r="M74" s="184"/>
       <c r="N74" s="29"/>
     </row>
     <row r="75" spans="2:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18940,10 +18962,10 @@
       <c r="I75" s="24"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
-      <c r="L75" s="181" t="s">
+      <c r="L75" s="183" t="s">
         <v>318</v>
       </c>
-      <c r="M75" s="182"/>
+      <c r="M75" s="184"/>
       <c r="N75" s="29"/>
     </row>
     <row r="76" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -18964,10 +18986,10 @@
       <c r="I76" s="24"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="181" t="s">
+      <c r="L76" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="M76" s="199"/>
+      <c r="M76" s="201"/>
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -18988,10 +19010,10 @@
       </c>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
-      <c r="L77" s="181" t="s">
+      <c r="L77" s="183" t="s">
         <v>320</v>
       </c>
-      <c r="M77" s="199"/>
+      <c r="M77" s="201"/>
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -19012,10 +19034,10 @@
         <v>5</v>
       </c>
       <c r="K78" s="25"/>
-      <c r="L78" s="181" t="s">
+      <c r="L78" s="183" t="s">
         <v>321</v>
       </c>
-      <c r="M78" s="199"/>
+      <c r="M78" s="201"/>
       <c r="N78" s="29"/>
     </row>
     <row r="79" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -19036,10 +19058,10 @@
       <c r="K79" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L79" s="181" t="s">
+      <c r="L79" s="183" t="s">
         <v>322</v>
       </c>
-      <c r="M79" s="199"/>
+      <c r="M79" s="201"/>
       <c r="N79" s="29"/>
     </row>
     <row r="80" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -19060,10 +19082,10 @@
       <c r="I80" s="24"/>
       <c r="J80" s="25"/>
       <c r="K80" s="25"/>
-      <c r="L80" s="181" t="s">
+      <c r="L80" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="M80" s="199"/>
+      <c r="M80" s="201"/>
       <c r="N80" s="29"/>
     </row>
     <row r="81" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -19084,10 +19106,10 @@
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
-      <c r="L81" s="181" t="s">
+      <c r="L81" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="M81" s="199"/>
+      <c r="M81" s="201"/>
       <c r="N81" s="29"/>
     </row>
     <row r="82" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -19103,8 +19125,8 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="179"/>
-      <c r="M82" s="180"/>
+      <c r="L82" s="181"/>
+      <c r="M82" s="182"/>
       <c r="N82" s="8"/>
     </row>
     <row r="83" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19125,10 +19147,10 @@
       <c r="I83" s="24"/>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
-      <c r="L83" s="181" t="s">
+      <c r="L83" s="183" t="s">
         <v>323</v>
       </c>
-      <c r="M83" s="182"/>
+      <c r="M83" s="184"/>
       <c r="N83" s="29"/>
     </row>
     <row r="84" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -19144,8 +19166,8 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="179"/>
-      <c r="M84" s="180"/>
+      <c r="L84" s="181"/>
+      <c r="M84" s="182"/>
       <c r="N84" s="8"/>
     </row>
     <row r="85" spans="2:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19166,10 +19188,10 @@
       <c r="I85" s="35"/>
       <c r="J85" s="34"/>
       <c r="K85" s="34"/>
-      <c r="L85" s="181" t="s">
+      <c r="L85" s="183" t="s">
         <v>324</v>
       </c>
-      <c r="M85" s="182"/>
+      <c r="M85" s="184"/>
       <c r="N85" s="29"/>
     </row>
     <row r="86" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -19185,8 +19207,8 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="179"/>
-      <c r="M86" s="180"/>
+      <c r="L86" s="181"/>
+      <c r="M86" s="182"/>
       <c r="N86" s="8"/>
     </row>
     <row r="87" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -19207,10 +19229,10 @@
       <c r="I87" s="35"/>
       <c r="J87" s="34"/>
       <c r="K87" s="34"/>
-      <c r="L87" s="181" t="s">
+      <c r="L87" s="183" t="s">
         <v>249</v>
       </c>
-      <c r="M87" s="182"/>
+      <c r="M87" s="184"/>
       <c r="N87" s="27" t="s">
         <v>325</v>
       </c>
@@ -19333,9 +19355,9 @@
     <hyperlink ref="L3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="44" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter>
-    <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_3_(backyard) &amp;P / &amp;N ページ</oddFooter>
+    <oddFooter>&amp;C【Appendix】IT Automation HA configuration installation manual_3_(backyard) &amp;P / &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="31" max="13" man="1"/>
@@ -19383,18 +19405,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="19" t="s">
         <v>185</v>
       </c>
@@ -19402,19 +19424,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="156" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(Ansible)</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="53" t="s">
         <v>186</v>
       </c>
@@ -19533,33 +19555,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="175" t="s">
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="176"/>
-      <c r="N11" s="169" t="s">
+      <c r="M11" s="178"/>
+      <c r="N11" s="171" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="4" t="s">
         <v>117</v>
       </c>
@@ -19584,9 +19606,9 @@
       <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="170"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="172"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -19601,8 +19623,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="180"/>
+      <c r="L13" s="206"/>
+      <c r="M13" s="182"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19610,23 +19632,23 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="173" t="s">
         <v>331</v>
       </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172" t="s">
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="181" t="s">
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="183" t="s">
         <v>366</v>
       </c>
-      <c r="M14" s="182"/>
+      <c r="M14" s="184"/>
       <c r="N14" s="16" t="s">
         <v>255</v>
       </c>
@@ -19636,19 +19658,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="181" t="s">
+      <c r="C15" s="169"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="199"/>
+      <c r="M15" s="201"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19656,19 +19678,19 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="181" t="s">
+      <c r="C16" s="169"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="183" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="199"/>
+      <c r="M16" s="201"/>
       <c r="N16" s="26"/>
     </row>
     <row r="17" spans="2:14" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19676,19 +19698,19 @@
         <f>MAX(B$10:B16)+1</f>
         <v>4</v>
       </c>
-      <c r="C17" s="168"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="181" t="s">
+      <c r="C17" s="170"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="183" t="s">
         <v>371</v>
       </c>
-      <c r="M17" s="199"/>
+      <c r="M17" s="201"/>
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -19704,8 +19726,8 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="180"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="182"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19726,10 +19748,10 @@
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="203" t="s">
+      <c r="L19" s="205" t="s">
         <v>359</v>
       </c>
-      <c r="M19" s="182"/>
+      <c r="M19" s="184"/>
       <c r="N19" s="27" t="s">
         <v>390</v>
       </c>
@@ -19747,8 +19769,8 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="180"/>
+      <c r="L20" s="206"/>
+      <c r="M20" s="182"/>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19769,10 +19791,10 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="203" t="s">
+      <c r="L21" s="205" t="s">
         <v>360</v>
       </c>
-      <c r="M21" s="182"/>
+      <c r="M21" s="184"/>
       <c r="N21" s="27" t="s">
         <v>391</v>
       </c>
@@ -19795,10 +19817,10 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="203" t="s">
+      <c r="L22" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="182"/>
+      <c r="M22" s="184"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -19814,8 +19836,8 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="180"/>
+      <c r="L23" s="206"/>
+      <c r="M23" s="182"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:14" ht="202.5" x14ac:dyDescent="0.15">
@@ -19836,10 +19858,10 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="203" t="s">
+      <c r="L24" s="205" t="s">
         <v>361</v>
       </c>
-      <c r="M24" s="182"/>
+      <c r="M24" s="184"/>
       <c r="N24" s="27" t="s">
         <v>393</v>
       </c>
@@ -19862,10 +19884,10 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="203" t="s">
+      <c r="L25" s="205" t="s">
         <v>362</v>
       </c>
-      <c r="M25" s="182"/>
+      <c r="M25" s="184"/>
       <c r="N25" s="27" t="s">
         <v>394</v>
       </c>
@@ -19888,10 +19910,10 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="203" t="s">
+      <c r="L26" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="182"/>
+      <c r="M26" s="184"/>
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -19899,23 +19921,23 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="173" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172" t="s">
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="203" t="s">
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="182"/>
+      <c r="M27" s="184"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="54" x14ac:dyDescent="0.15">
@@ -19923,19 +19945,19 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="203" t="s">
+      <c r="C28" s="169"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="205" t="s">
         <v>363</v>
       </c>
-      <c r="M28" s="182"/>
+      <c r="M28" s="184"/>
       <c r="N28" s="27" t="s">
         <v>395</v>
       </c>
@@ -19945,23 +19967,23 @@
         <f>MAX(B$11:B28)+1</f>
         <v>13</v>
       </c>
-      <c r="C29" s="171" t="s">
+      <c r="C29" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172" t="s">
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="203" t="s">
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="205" t="s">
         <v>364</v>
       </c>
-      <c r="M29" s="182"/>
+      <c r="M29" s="184"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -19969,19 +19991,19 @@
         <f>MAX(B$11:B29)+1</f>
         <v>14</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="203" t="s">
+      <c r="C30" s="169"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="205" t="s">
         <v>365</v>
       </c>
-      <c r="M30" s="182"/>
+      <c r="M30" s="184"/>
       <c r="N30" s="27" t="s">
         <v>396</v>
       </c>
@@ -19999,8 +20021,8 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="204"/>
-      <c r="M31" s="180"/>
+      <c r="L31" s="206"/>
+      <c r="M31" s="182"/>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20021,10 +20043,10 @@
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="203" t="s">
+      <c r="L32" s="205" t="s">
         <v>367</v>
       </c>
-      <c r="M32" s="182"/>
+      <c r="M32" s="184"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20045,10 +20067,10 @@
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="203" t="s">
+      <c r="L33" s="205" t="s">
         <v>368</v>
       </c>
-      <c r="M33" s="182"/>
+      <c r="M33" s="184"/>
       <c r="N33" s="27"/>
     </row>
     <row r="34" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20069,10 +20091,10 @@
       <c r="I34" s="24"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="203" t="s">
+      <c r="L34" s="205" t="s">
         <v>369</v>
       </c>
-      <c r="M34" s="182"/>
+      <c r="M34" s="184"/>
       <c r="N34" s="27"/>
     </row>
     <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -20088,8 +20110,8 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="204"/>
-      <c r="M35" s="180"/>
+      <c r="L35" s="206"/>
+      <c r="M35" s="182"/>
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="2:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20110,10 +20132,10 @@
       <c r="I36" s="35"/>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
-      <c r="L36" s="203" t="s">
+      <c r="L36" s="205" t="s">
         <v>370</v>
       </c>
-      <c r="M36" s="182"/>
+      <c r="M36" s="184"/>
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -20129,8 +20151,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="204"/>
-      <c r="M37" s="180"/>
+      <c r="L37" s="206"/>
+      <c r="M37" s="182"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20151,10 +20173,10 @@
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="203" t="s">
+      <c r="L38" s="205" t="s">
         <v>376</v>
       </c>
-      <c r="M38" s="182"/>
+      <c r="M38" s="184"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20175,88 +20197,88 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="203" t="s">
+      <c r="L39" s="205" t="s">
         <v>372</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="189">
+      <c r="B40" s="191">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="171" t="s">
+      <c r="C40" s="173" t="s">
         <v>344</v>
       </c>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172" t="s">
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="172"/>
-      <c r="L40" s="181" t="s">
+      <c r="I40" s="174"/>
+      <c r="J40" s="174"/>
+      <c r="K40" s="174"/>
+      <c r="L40" s="183" t="s">
         <v>406</v>
       </c>
-      <c r="M40" s="182"/>
-      <c r="N40" s="195"/>
+      <c r="M40" s="184"/>
+      <c r="N40" s="197"/>
     </row>
     <row r="41" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="190"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="190"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="192"/>
       <c r="L41" s="82" t="s">
         <v>374</v>
       </c>
       <c r="M41" s="83" t="s">
         <v>375</v>
       </c>
-      <c r="N41" s="196"/>
+      <c r="N41" s="198"/>
     </row>
     <row r="42" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="190"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="192"/>
       <c r="L42" s="84" t="s">
         <v>378</v>
       </c>
       <c r="M42" s="87" t="s">
         <v>377</v>
       </c>
-      <c r="N42" s="196"/>
+      <c r="N42" s="198"/>
     </row>
     <row r="43" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="191"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="194"/>
+      <c r="B43" s="193"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
       <c r="L43" s="79"/>
       <c r="M43" s="81"/>
-      <c r="N43" s="197"/>
+      <c r="N43" s="199"/>
     </row>
     <row r="44" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -20276,10 +20298,10 @@
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="181" t="s">
+      <c r="L44" s="183" t="s">
         <v>381</v>
       </c>
-      <c r="M44" s="199"/>
+      <c r="M44" s="201"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20300,10 +20322,10 @@
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="181" t="s">
+      <c r="L45" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="M45" s="199"/>
+      <c r="M45" s="201"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -20324,10 +20346,10 @@
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="181" t="s">
+      <c r="L46" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="M46" s="199"/>
+      <c r="M46" s="201"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20348,10 +20370,10 @@
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="181" t="s">
+      <c r="L47" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="M47" s="199"/>
+      <c r="M47" s="201"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20372,10 +20394,10 @@
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="181" t="s">
+      <c r="L48" s="183" t="s">
         <v>291</v>
       </c>
-      <c r="M48" s="199"/>
+      <c r="M48" s="201"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -20391,8 +20413,8 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="204"/>
-      <c r="M49" s="180"/>
+      <c r="L49" s="206"/>
+      <c r="M49" s="182"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="2:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20413,10 +20435,10 @@
       <c r="I50" s="24"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="203" t="s">
+      <c r="L50" s="205" t="s">
         <v>379</v>
       </c>
-      <c r="M50" s="182"/>
+      <c r="M50" s="184"/>
       <c r="N50" s="29"/>
     </row>
     <row r="51" spans="2:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20437,10 +20459,10 @@
       <c r="I51" s="24"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="203" t="s">
+      <c r="L51" s="205" t="s">
         <v>380</v>
       </c>
-      <c r="M51" s="182"/>
+      <c r="M51" s="184"/>
       <c r="N51" s="29"/>
     </row>
     <row r="52" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -20461,10 +20483,10 @@
       <c r="I52" s="24"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="203" t="s">
+      <c r="L52" s="205" t="s">
         <v>382</v>
       </c>
-      <c r="M52" s="199"/>
+      <c r="M52" s="201"/>
       <c r="N52" s="29"/>
     </row>
     <row r="53" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -20485,10 +20507,10 @@
       <c r="I53" s="24"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="203" t="s">
+      <c r="L53" s="205" t="s">
         <v>383</v>
       </c>
-      <c r="M53" s="199"/>
+      <c r="M53" s="201"/>
       <c r="N53" s="29"/>
     </row>
     <row r="54" spans="2:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20509,10 +20531,10 @@
       <c r="I54" s="24"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
-      <c r="L54" s="203" t="s">
+      <c r="L54" s="205" t="s">
         <v>479</v>
       </c>
-      <c r="M54" s="199"/>
+      <c r="M54" s="201"/>
       <c r="N54" s="29"/>
     </row>
     <row r="55" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -20533,10 +20555,10 @@
       <c r="I55" s="35"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="203" t="s">
+      <c r="L55" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="199"/>
+      <c r="M55" s="201"/>
       <c r="N55" s="29"/>
     </row>
     <row r="56" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -20552,8 +20574,8 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="204"/>
-      <c r="M56" s="180"/>
+      <c r="L56" s="206"/>
+      <c r="M56" s="182"/>
       <c r="N56" s="8"/>
     </row>
     <row r="57" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -20574,10 +20596,10 @@
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
-      <c r="L57" s="203" t="s">
+      <c r="L57" s="205" t="s">
         <v>388</v>
       </c>
-      <c r="M57" s="182"/>
+      <c r="M57" s="184"/>
       <c r="N57" s="27" t="s">
         <v>397</v>
       </c>
@@ -20600,10 +20622,10 @@
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="203" t="s">
+      <c r="L58" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="M58" s="182"/>
+      <c r="M58" s="184"/>
       <c r="N58" s="27"/>
     </row>
     <row r="59" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20624,10 +20646,10 @@
       <c r="I59" s="24"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="203" t="s">
+      <c r="L59" s="205" t="s">
         <v>384</v>
       </c>
-      <c r="M59" s="182"/>
+      <c r="M59" s="184"/>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -20648,10 +20670,10 @@
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="203" t="s">
+      <c r="L60" s="205" t="s">
         <v>385</v>
       </c>
-      <c r="M60" s="182"/>
+      <c r="M60" s="184"/>
       <c r="N60" s="27"/>
     </row>
     <row r="61" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -20672,10 +20694,10 @@
       <c r="I61" s="24"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="203" t="s">
+      <c r="L61" s="205" t="s">
         <v>386</v>
       </c>
-      <c r="M61" s="199"/>
+      <c r="M61" s="201"/>
       <c r="N61" s="27" t="s">
         <v>398</v>
       </c>
@@ -20698,10 +20720,10 @@
       <c r="I62" s="35"/>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
-      <c r="L62" s="203" t="s">
+      <c r="L62" s="205" t="s">
         <v>387</v>
       </c>
-      <c r="M62" s="199"/>
+      <c r="M62" s="201"/>
       <c r="N62" s="27" t="s">
         <v>399</v>
       </c>
@@ -20807,9 +20829,9 @@
     <hyperlink ref="L3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="40" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="8" scale="65" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter>
-    <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_4_(Ansible) &amp;P / &amp;N ページ</oddFooter>
+    <oddFooter>&amp;C【Appendix】IT Automation HA configuration installation manual_4_(Ansible) &amp;P / &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="55" max="16383" man="1"/>
@@ -20854,36 +20876,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="154" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="156" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(Ansible Tower)</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="53"/>
       <c r="M3" s="53"/>
       <c r="N3" s="19"/>
@@ -21018,33 +21040,33 @@
       <c r="N11" s="19"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="185" t="s">
+      <c r="C12" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="175" t="s">
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="176"/>
-      <c r="N12" s="169" t="s">
+      <c r="M12" s="178"/>
+      <c r="N12" s="171" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="184"/>
-      <c r="C13" s="186"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="188"/>
       <c r="D13" s="4" t="s">
         <v>117</v>
       </c>
@@ -21069,9 +21091,9 @@
       <c r="K13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="177"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="170"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="172"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -21086,8 +21108,8 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="206"/>
+      <c r="L14" s="206"/>
+      <c r="M14" s="208"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21108,88 +21130,88 @@
       <c r="I15" s="49"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="203" t="s">
+      <c r="L15" s="205" t="s">
         <v>405</v>
       </c>
-      <c r="M15" s="199"/>
+      <c r="M15" s="201"/>
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="189">
+      <c r="B16" s="191">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="208" t="s">
+      <c r="C16" s="210" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172" t="s">
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="181" t="s">
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="M16" s="182"/>
-      <c r="N16" s="195"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="197"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="190"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="190"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
       <c r="L17" s="82" t="s">
         <v>407</v>
       </c>
       <c r="M17" s="83" t="s">
         <v>375</v>
       </c>
-      <c r="N17" s="196"/>
+      <c r="N17" s="198"/>
     </row>
     <row r="18" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="190"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="190"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
       <c r="L18" s="84" t="s">
         <v>409</v>
       </c>
       <c r="M18" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="N18" s="196"/>
+      <c r="N18" s="198"/>
     </row>
     <row r="19" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="207"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="197"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="199"/>
     </row>
     <row r="20" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -21226,10 +21248,10 @@
       <c r="I21" s="35"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="203" t="s">
+      <c r="L21" s="205" t="s">
         <v>410</v>
       </c>
-      <c r="M21" s="199"/>
+      <c r="M21" s="201"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21250,10 +21272,10 @@
       <c r="I22" s="35"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="203" t="s">
+      <c r="L22" s="205" t="s">
         <v>411</v>
       </c>
-      <c r="M22" s="199"/>
+      <c r="M22" s="201"/>
       <c r="N22" s="27"/>
     </row>
   </sheetData>
@@ -21286,9 +21308,9 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_5_(Ansible Tower) &amp;P / &amp;N ページ</oddFooter>
+    <oddFooter>&amp;C【Appnedix】IT Automation HA configuration installation manual_5_(Ansible Tower) &amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -21332,18 +21354,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="154" t="s">
         <v>415</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="19" t="s">
         <v>185</v>
       </c>
@@ -21351,19 +21373,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="156" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(Cobbler)</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="53" t="s">
         <v>186</v>
       </c>
@@ -21486,33 +21508,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="175" t="s">
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="176"/>
-      <c r="N11" s="169" t="s">
+      <c r="M11" s="178"/>
+      <c r="N11" s="171" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="4" t="s">
         <v>117</v>
       </c>
@@ -21537,9 +21559,9 @@
       <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="170"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="172"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -21554,8 +21576,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="180"/>
+      <c r="L13" s="206"/>
+      <c r="M13" s="182"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21563,23 +21585,23 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172" t="s">
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="181" t="s">
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="183" t="s">
         <v>250</v>
       </c>
-      <c r="M14" s="182"/>
+      <c r="M14" s="184"/>
       <c r="N14" s="16" t="s">
         <v>254</v>
       </c>
@@ -21589,19 +21611,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="181" t="s">
+      <c r="C15" s="169"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="199"/>
+      <c r="M15" s="201"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -21609,19 +21631,19 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="181" t="s">
+      <c r="C16" s="169"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="183" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="199"/>
+      <c r="M16" s="201"/>
       <c r="N16" s="26"/>
     </row>
     <row r="17" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21629,19 +21651,19 @@
         <f>MAX(B$10:B16)+1</f>
         <v>4</v>
       </c>
-      <c r="C17" s="168"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="181" t="s">
+      <c r="C17" s="170"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="M17" s="199"/>
+      <c r="M17" s="201"/>
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21657,8 +21679,8 @@
       <c r="I18" s="134"/>
       <c r="J18" s="134"/>
       <c r="K18" s="134"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="180"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="182"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21679,10 +21701,10 @@
       <c r="I19" s="131"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="203" t="s">
+      <c r="L19" s="205" t="s">
         <v>359</v>
       </c>
-      <c r="M19" s="182"/>
+      <c r="M19" s="184"/>
       <c r="N19" s="27" t="s">
         <v>389</v>
       </c>
@@ -21700,8 +21722,8 @@
       <c r="I20" s="134"/>
       <c r="J20" s="134"/>
       <c r="K20" s="134"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="180"/>
+      <c r="L20" s="206"/>
+      <c r="M20" s="182"/>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:14" ht="202.5" x14ac:dyDescent="0.15">
@@ -21722,10 +21744,10 @@
       <c r="I21" s="131"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="203" t="s">
+      <c r="L21" s="205" t="s">
         <v>361</v>
       </c>
-      <c r="M21" s="182"/>
+      <c r="M21" s="184"/>
       <c r="N21" s="27" t="s">
         <v>392</v>
       </c>
@@ -21748,10 +21770,10 @@
       <c r="I22" s="131"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="203" t="s">
+      <c r="L22" s="205" t="s">
         <v>362</v>
       </c>
-      <c r="M22" s="182"/>
+      <c r="M22" s="184"/>
       <c r="N22" s="27" t="s">
         <v>394</v>
       </c>
@@ -21774,10 +21796,10 @@
       <c r="I23" s="131"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="203" t="s">
+      <c r="L23" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="182"/>
+      <c r="M23" s="184"/>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21785,23 +21807,23 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="173" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172" t="s">
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="203" t="s">
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="182"/>
+      <c r="M24" s="184"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="2:14" ht="54" x14ac:dyDescent="0.15">
@@ -21809,19 +21831,19 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="203" t="s">
+      <c r="C25" s="169"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="205" t="s">
         <v>363</v>
       </c>
-      <c r="M25" s="182"/>
+      <c r="M25" s="184"/>
       <c r="N25" s="27" t="s">
         <v>257</v>
       </c>
@@ -21831,23 +21853,23 @@
         <f>MAX(B$11:B25)+1</f>
         <v>11</v>
       </c>
-      <c r="C26" s="171" t="s">
+      <c r="C26" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172" t="s">
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="203" t="s">
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="205" t="s">
         <v>259</v>
       </c>
-      <c r="M26" s="182"/>
+      <c r="M26" s="184"/>
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -21855,19 +21877,19 @@
         <f>MAX(B$11:B26)+1</f>
         <v>12</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="203" t="s">
+      <c r="C27" s="169"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="205" t="s">
         <v>365</v>
       </c>
-      <c r="M27" s="182"/>
+      <c r="M27" s="184"/>
       <c r="N27" s="27" t="s">
         <v>261</v>
       </c>
@@ -21885,8 +21907,8 @@
       <c r="I28" s="134"/>
       <c r="J28" s="134"/>
       <c r="K28" s="134"/>
-      <c r="L28" s="204"/>
-      <c r="M28" s="180"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="182"/>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21907,10 +21929,10 @@
       <c r="I29" s="131"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="203" t="s">
+      <c r="L29" s="205" t="s">
         <v>367</v>
       </c>
-      <c r="M29" s="182"/>
+      <c r="M29" s="184"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21931,10 +21953,10 @@
       <c r="I30" s="131"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="203" t="s">
+      <c r="L30" s="205" t="s">
         <v>368</v>
       </c>
-      <c r="M30" s="182"/>
+      <c r="M30" s="184"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21955,10 +21977,10 @@
       <c r="I31" s="131"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="203" t="s">
+      <c r="L31" s="205" t="s">
         <v>369</v>
       </c>
-      <c r="M31" s="182"/>
+      <c r="M31" s="184"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21974,8 +21996,8 @@
       <c r="I32" s="134"/>
       <c r="J32" s="134"/>
       <c r="K32" s="134"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="180"/>
+      <c r="L32" s="206"/>
+      <c r="M32" s="182"/>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21996,10 +22018,10 @@
       <c r="I33" s="131"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="203" t="s">
+      <c r="L33" s="205" t="s">
         <v>376</v>
       </c>
-      <c r="M33" s="182"/>
+      <c r="M33" s="184"/>
       <c r="N33" s="29"/>
     </row>
     <row r="34" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22020,88 +22042,88 @@
       <c r="I34" s="131"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="203" t="s">
+      <c r="L34" s="205" t="s">
         <v>372</v>
       </c>
-      <c r="M34" s="182"/>
+      <c r="M34" s="184"/>
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="189">
+      <c r="B35" s="191">
         <f>MAX(B$11:B34)+1</f>
         <v>18</v>
       </c>
-      <c r="C35" s="171" t="s">
+      <c r="C35" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172" t="s">
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="181" t="s">
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="M35" s="182"/>
-      <c r="N35" s="195"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="197"/>
     </row>
     <row r="36" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="211"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
+      <c r="B36" s="213"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="192"/>
       <c r="L36" s="82" t="s">
         <v>420</v>
       </c>
       <c r="M36" s="83" t="s">
         <v>375</v>
       </c>
-      <c r="N36" s="196"/>
+      <c r="N36" s="198"/>
     </row>
     <row r="37" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="211"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="190"/>
+      <c r="B37" s="213"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="192"/>
+      <c r="K37" s="192"/>
       <c r="L37" s="84" t="s">
         <v>378</v>
       </c>
       <c r="M37" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="N37" s="196"/>
+      <c r="N37" s="198"/>
     </row>
     <row r="38" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="212"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="194"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196"/>
       <c r="L38" s="133"/>
       <c r="M38" s="132"/>
-      <c r="N38" s="197"/>
+      <c r="N38" s="199"/>
     </row>
     <row r="39" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1">
@@ -22121,10 +22143,10 @@
       <c r="I39" s="131"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="181" t="s">
+      <c r="L39" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="M39" s="199"/>
+      <c r="M39" s="201"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22145,10 +22167,10 @@
       <c r="I40" s="131"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="181" t="s">
+      <c r="L40" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="M40" s="199"/>
+      <c r="M40" s="201"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22169,10 +22191,10 @@
       <c r="I41" s="28"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="181" t="s">
+      <c r="L41" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="M41" s="199"/>
+      <c r="M41" s="201"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22193,10 +22215,10 @@
       <c r="I42" s="28"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="181" t="s">
+      <c r="L42" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="M42" s="199"/>
+      <c r="M42" s="201"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22217,10 +22239,10 @@
       <c r="I43" s="28"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="181" t="s">
+      <c r="L43" s="183" t="s">
         <v>421</v>
       </c>
-      <c r="M43" s="199"/>
+      <c r="M43" s="201"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22241,10 +22263,10 @@
       </c>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="181" t="s">
+      <c r="L44" s="183" t="s">
         <v>422</v>
       </c>
-      <c r="M44" s="199"/>
+      <c r="M44" s="201"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -22265,10 +22287,10 @@
       </c>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="181" t="s">
+      <c r="L45" s="183" t="s">
         <v>423</v>
       </c>
-      <c r="M45" s="199"/>
+      <c r="M45" s="201"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22289,10 +22311,10 @@
       </c>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="181" t="s">
+      <c r="L46" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="M46" s="199"/>
+      <c r="M46" s="201"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -22308,8 +22330,8 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="204"/>
-      <c r="M47" s="180"/>
+      <c r="L47" s="206"/>
+      <c r="M47" s="182"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="2:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22330,10 +22352,10 @@
       </c>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="203" t="s">
+      <c r="L48" s="205" t="s">
         <v>426</v>
       </c>
-      <c r="M48" s="182"/>
+      <c r="M48" s="184"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -22349,8 +22371,8 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="204"/>
-      <c r="M49" s="180"/>
+      <c r="L49" s="206"/>
+      <c r="M49" s="182"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22371,10 +22393,10 @@
       </c>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
-      <c r="L50" s="203" t="s">
+      <c r="L50" s="205" t="s">
         <v>430</v>
       </c>
-      <c r="M50" s="182"/>
+      <c r="M50" s="184"/>
       <c r="N50" s="27"/>
     </row>
   </sheetData>
@@ -22466,9 +22488,9 @@
     <hyperlink ref="L3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="42" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="8" scale="68" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter>
-    <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_6_(Cobbler) &amp;P / &amp;N ページ</oddFooter>
+    <oddFooter>&amp;C【Appendix】IT Automation HA configuration installation manual_6_(Cobbler) &amp;P / &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="34" max="16383" man="1"/>
@@ -22515,36 +22537,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="156" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(OpenStack)</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -22655,33 +22677,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="175" t="s">
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="177" t="s">
         <v>326</v>
       </c>
-      <c r="M11" s="176"/>
-      <c r="N11" s="169" t="s">
+      <c r="M11" s="178"/>
+      <c r="N11" s="171" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="4" t="s">
         <v>117</v>
       </c>
@@ -22706,29 +22728,29 @@
       <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="170"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="172"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="32">
         <f>MAX(B$10:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="215" t="s">
         <v>328</v>
       </c>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="216"/>
+      <c r="N13" s="217"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:N13"/>
@@ -22744,9 +22766,9 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_7_(OpenStack) &amp;P / &amp;N ページ</oddFooter>
+    <oddFooter>&amp;C【Appendix】IT Automation HA configuration installation manual_7_(OpenStack) &amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -22790,36 +22812,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="156" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(DSC)</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -22930,33 +22952,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="175" t="s">
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="177" t="s">
         <v>326</v>
       </c>
-      <c r="M11" s="176"/>
-      <c r="N11" s="169" t="s">
+      <c r="M11" s="178"/>
+      <c r="N11" s="171" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="4" t="s">
         <v>117</v>
       </c>
@@ -22981,29 +23003,29 @@
       <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="170"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="172"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="32">
         <f>MAX(B$10:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="215" t="s">
         <v>328</v>
       </c>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="216"/>
+      <c r="N13" s="217"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:N13"/>
@@ -23019,9 +23041,9 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_8_(DSC) &amp;P / &amp;N ページ</oddFooter>
+    <oddFooter>&amp;C【Appendix】IT Automation HA configuration installation manual_8_(DSC) &amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/asset/Learn/ITA-HA-configuration.xlsx
+++ b/asset/Learn/ITA-HA-configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5520" windowWidth="28800" windowHeight="11520" tabRatio="716"/>
+    <workbookView xWindow="0" yWindow="6900" windowWidth="28800" windowHeight="11520" tabRatio="716"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="26" r:id="rId1"/>
@@ -10676,6 +10676,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10718,138 +10733,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10860,6 +10860,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10874,9 +10877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -10892,6 +10892,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -10900,18 +10912,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11761,9 +11761,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B71:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12882,7 +12880,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L48" sqref="L48:M48"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -12911,18 +12909,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="19" t="s">
         <v>166</v>
       </c>
@@ -12930,19 +12928,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="str">
+      <c r="B3" s="162" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(Web・AP)</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="53" t="s">
         <v>167</v>
       </c>
@@ -13063,33 +13061,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="206" t="s">
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="207"/>
-      <c r="N11" s="201" t="s">
+      <c r="M11" s="184"/>
+      <c r="N11" s="177" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="4" t="s">
         <v>111</v>
       </c>
@@ -13114,9 +13112,9 @@
       <c r="K12" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="L12" s="208"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="202"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="178"/>
     </row>
     <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
@@ -13131,8 +13129,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="212"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="65" x14ac:dyDescent="0.2">
@@ -13140,23 +13138,23 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="203" t="s">
+      <c r="C14" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="191" t="s">
+      <c r="D14" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="174" t="s">
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="189" t="s">
         <v>225</v>
       </c>
-      <c r="M14" s="178"/>
+      <c r="M14" s="190"/>
       <c r="N14" s="16" t="s">
         <v>227</v>
       </c>
@@ -13166,19 +13164,19 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="199"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="174" t="s">
+      <c r="C15" s="175"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="176"/>
+      <c r="M15" s="207"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -13186,19 +13184,19 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="174" t="s">
+      <c r="C16" s="176"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="189" t="s">
         <v>226</v>
       </c>
-      <c r="M16" s="176"/>
+      <c r="M16" s="207"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -13214,8 +13212,8 @@
       <c r="I17" s="132"/>
       <c r="J17" s="132"/>
       <c r="K17" s="132"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="180"/>
+      <c r="L17" s="212"/>
+      <c r="M17" s="188"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13236,10 +13234,10 @@
       <c r="I18" s="129"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="212" t="s">
+      <c r="L18" s="211" t="s">
         <v>325</v>
       </c>
-      <c r="M18" s="178"/>
+      <c r="M18" s="190"/>
       <c r="N18" s="134" t="s">
         <v>352</v>
       </c>
@@ -13257,8 +13255,8 @@
       <c r="I19" s="132"/>
       <c r="J19" s="132"/>
       <c r="K19" s="132"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="180"/>
+      <c r="L19" s="212"/>
+      <c r="M19" s="188"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -13279,10 +13277,10 @@
       <c r="I20" s="129"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="212" t="s">
+      <c r="L20" s="211" t="s">
         <v>326</v>
       </c>
-      <c r="M20" s="178"/>
+      <c r="M20" s="190"/>
       <c r="N20" s="135" t="s">
         <v>354</v>
       </c>
@@ -13305,10 +13303,10 @@
       <c r="I21" s="129"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="212" t="s">
+      <c r="L21" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="178"/>
+      <c r="M21" s="190"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -13324,8 +13322,8 @@
       <c r="I22" s="132"/>
       <c r="J22" s="132"/>
       <c r="K22" s="132"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="180"/>
+      <c r="L22" s="212"/>
+      <c r="M22" s="188"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" ht="221" x14ac:dyDescent="0.2">
@@ -13346,10 +13344,10 @@
       <c r="I23" s="129"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="212" t="s">
+      <c r="L23" s="211" t="s">
         <v>475</v>
       </c>
-      <c r="M23" s="178"/>
+      <c r="M23" s="190"/>
       <c r="N23" s="27" t="s">
         <v>474</v>
       </c>
@@ -13372,10 +13370,10 @@
       <c r="I24" s="129"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="212" t="s">
+      <c r="L24" s="211" t="s">
         <v>327</v>
       </c>
-      <c r="M24" s="178"/>
+      <c r="M24" s="190"/>
       <c r="N24" s="27" t="s">
         <v>355</v>
       </c>
@@ -13398,10 +13396,10 @@
       <c r="I25" s="129"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="212" t="s">
+      <c r="L25" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="178"/>
+      <c r="M25" s="190"/>
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="65" x14ac:dyDescent="0.2">
@@ -13422,10 +13420,10 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="212" t="s">
+      <c r="L26" s="211" t="s">
         <v>473</v>
       </c>
-      <c r="M26" s="178"/>
+      <c r="M26" s="190"/>
       <c r="N26" s="27" t="s">
         <v>458</v>
       </c>
@@ -13435,23 +13433,23 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="203" t="s">
+      <c r="C27" s="179" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="191" t="s">
+      <c r="D27" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="191"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="212" t="s">
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="M27" s="178"/>
+      <c r="M27" s="190"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="104" x14ac:dyDescent="0.2">
@@ -13459,19 +13457,19 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="199"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="212" t="s">
+      <c r="C28" s="175"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="211" t="s">
         <v>329</v>
       </c>
-      <c r="M28" s="178"/>
+      <c r="M28" s="190"/>
       <c r="N28" s="27" t="s">
         <v>232</v>
       </c>
@@ -13489,8 +13487,8 @@
       <c r="I29" s="132"/>
       <c r="J29" s="132"/>
       <c r="K29" s="132"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="180"/>
+      <c r="L29" s="212"/>
+      <c r="M29" s="188"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13511,10 +13509,10 @@
       <c r="I30" s="129"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="212" t="s">
+      <c r="L30" s="211" t="s">
         <v>331</v>
       </c>
-      <c r="M30" s="178"/>
+      <c r="M30" s="190"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13535,10 +13533,10 @@
       <c r="I31" s="129"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="212" t="s">
+      <c r="L31" s="211" t="s">
         <v>332</v>
       </c>
-      <c r="M31" s="178"/>
+      <c r="M31" s="190"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13559,10 +13557,10 @@
       <c r="I32" s="129"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="212" t="s">
+      <c r="L32" s="211" t="s">
         <v>333</v>
       </c>
-      <c r="M32" s="178"/>
+      <c r="M32" s="190"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -13578,8 +13576,8 @@
       <c r="I33" s="132"/>
       <c r="J33" s="132"/>
       <c r="K33" s="132"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="180"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="188"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13600,10 +13598,10 @@
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
-      <c r="L34" s="212" t="s">
+      <c r="L34" s="211" t="s">
         <v>468</v>
       </c>
-      <c r="M34" s="178"/>
+      <c r="M34" s="190"/>
       <c r="N34" s="29" t="s">
         <v>469</v>
       </c>
@@ -13625,7 +13623,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
-      <c r="L35" s="212" t="s">
+      <c r="L35" s="211" t="s">
         <v>470</v>
       </c>
       <c r="M35" s="213"/>
@@ -13667,8 +13665,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="211"/>
-      <c r="M37" s="180"/>
+      <c r="L37" s="212"/>
+      <c r="M37" s="188"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -13689,10 +13687,10 @@
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="212" t="s">
+      <c r="L38" s="211" t="s">
         <v>393</v>
       </c>
-      <c r="M38" s="178"/>
+      <c r="M38" s="190"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -13713,10 +13711,10 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="212" t="s">
+      <c r="L39" s="211" t="s">
         <v>433</v>
       </c>
-      <c r="M39" s="178"/>
+      <c r="M39" s="190"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -13737,10 +13735,10 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="212" t="s">
+      <c r="L40" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="M40" s="178"/>
+      <c r="M40" s="190"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -13761,10 +13759,10 @@
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="212" t="s">
+      <c r="L41" s="211" t="s">
         <v>432</v>
       </c>
-      <c r="M41" s="178"/>
+      <c r="M41" s="190"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13785,10 +13783,10 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="212" t="s">
+      <c r="L42" s="211" t="s">
         <v>431</v>
       </c>
-      <c r="M42" s="176"/>
+      <c r="M42" s="207"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -13809,10 +13807,10 @@
       <c r="I43" s="28"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="174" t="s">
+      <c r="L43" s="189" t="s">
         <v>430</v>
       </c>
-      <c r="M43" s="176"/>
+      <c r="M43" s="207"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -13833,10 +13831,10 @@
       <c r="I44" s="28"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="174" t="s">
+      <c r="L44" s="189" t="s">
         <v>261</v>
       </c>
-      <c r="M44" s="176"/>
+      <c r="M44" s="207"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -13857,10 +13855,10 @@
       <c r="I45" s="28"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="174" t="s">
+      <c r="L45" s="189" t="s">
         <v>262</v>
       </c>
-      <c r="M45" s="176"/>
+      <c r="M45" s="207"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -13884,7 +13882,7 @@
       <c r="L46" s="210" t="s">
         <v>263</v>
       </c>
-      <c r="M46" s="176"/>
+      <c r="M46" s="207"/>
       <c r="N46" s="45"/>
     </row>
     <row r="47" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -13908,7 +13906,7 @@
       <c r="L47" s="210" t="s">
         <v>264</v>
       </c>
-      <c r="M47" s="176"/>
+      <c r="M47" s="207"/>
       <c r="N47" s="45"/>
     </row>
     <row r="48" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -13934,7 +13932,7 @@
       <c r="L48" s="210" t="s">
         <v>265</v>
       </c>
-      <c r="M48" s="176"/>
+      <c r="M48" s="207"/>
       <c r="N48" s="45"/>
     </row>
     <row r="49" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -13960,7 +13958,7 @@
       <c r="L49" s="210" t="s">
         <v>266</v>
       </c>
-      <c r="M49" s="176"/>
+      <c r="M49" s="207"/>
       <c r="N49" s="45"/>
     </row>
     <row r="50" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -13984,7 +13982,7 @@
       <c r="L50" s="210" t="s">
         <v>267</v>
       </c>
-      <c r="M50" s="176"/>
+      <c r="M50" s="207"/>
       <c r="N50" s="45"/>
     </row>
     <row r="51" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -14008,7 +14006,7 @@
       <c r="L51" s="210" t="s">
         <v>268</v>
       </c>
-      <c r="M51" s="176"/>
+      <c r="M51" s="207"/>
       <c r="N51" s="45"/>
     </row>
     <row r="52" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14034,7 +14032,7 @@
       <c r="L52" s="210" t="s">
         <v>269</v>
       </c>
-      <c r="M52" s="176"/>
+      <c r="M52" s="207"/>
       <c r="N52" s="45"/>
     </row>
     <row r="53" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -14058,7 +14056,7 @@
       <c r="L53" s="210" t="s">
         <v>270</v>
       </c>
-      <c r="M53" s="176"/>
+      <c r="M53" s="207"/>
       <c r="N53" s="45"/>
     </row>
     <row r="54" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -14082,7 +14080,7 @@
       <c r="L54" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="M54" s="176"/>
+      <c r="M54" s="207"/>
       <c r="N54" s="45"/>
     </row>
     <row r="55" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -14106,7 +14104,7 @@
       <c r="L55" s="210" t="s">
         <v>272</v>
       </c>
-      <c r="M55" s="176"/>
+      <c r="M55" s="207"/>
       <c r="N55" s="45"/>
     </row>
     <row r="56" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -14130,7 +14128,7 @@
       <c r="L56" s="210" t="s">
         <v>460</v>
       </c>
-      <c r="M56" s="176"/>
+      <c r="M56" s="207"/>
       <c r="N56" s="45"/>
     </row>
     <row r="57" spans="2:14" ht="91" x14ac:dyDescent="0.2">
@@ -14151,10 +14149,10 @@
       <c r="I57" s="129"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="174" t="s">
+      <c r="L57" s="189" t="s">
         <v>278</v>
       </c>
-      <c r="M57" s="176"/>
+      <c r="M57" s="207"/>
       <c r="N57" s="29" t="s">
         <v>273</v>
       </c>
@@ -14177,10 +14175,10 @@
       <c r="I58" s="129"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="174" t="s">
+      <c r="L58" s="189" t="s">
         <v>274</v>
       </c>
-      <c r="M58" s="176"/>
+      <c r="M58" s="207"/>
       <c r="N58" s="29" t="s">
         <v>276</v>
       </c>
@@ -14203,10 +14201,10 @@
       <c r="I59" s="129"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="174" t="s">
+      <c r="L59" s="189" t="s">
         <v>275</v>
       </c>
-      <c r="M59" s="176"/>
+      <c r="M59" s="207"/>
       <c r="N59" s="29" t="s">
         <v>277</v>
       </c>
@@ -14224,238 +14222,238 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="211"/>
-      <c r="M60" s="180"/>
+      <c r="L60" s="212"/>
+      <c r="M60" s="188"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="185">
+      <c r="B61" s="197">
         <f>MAX(B$11:B60)+1</f>
         <v>41</v>
       </c>
-      <c r="C61" s="218" t="s">
+      <c r="C61" s="219" t="s">
         <v>400</v>
       </c>
-      <c r="D61" s="191" t="s">
+      <c r="D61" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="191"/>
-      <c r="F61" s="191"/>
-      <c r="G61" s="191"/>
-      <c r="H61" s="191"/>
-      <c r="I61" s="191"/>
-      <c r="J61" s="191"/>
-      <c r="K61" s="191"/>
-      <c r="L61" s="174" t="s">
+      <c r="E61" s="180"/>
+      <c r="F61" s="180"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="180"/>
+      <c r="I61" s="180"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="180"/>
+      <c r="L61" s="189" t="s">
         <v>237</v>
       </c>
-      <c r="M61" s="178"/>
-      <c r="N61" s="182"/>
+      <c r="M61" s="190"/>
+      <c r="N61" s="203"/>
     </row>
     <row r="62" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="186"/>
-      <c r="C62" s="219"/>
-      <c r="D62" s="186"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
-      <c r="H62" s="186"/>
-      <c r="I62" s="186"/>
-      <c r="J62" s="186"/>
-      <c r="K62" s="186"/>
+      <c r="B62" s="198"/>
+      <c r="C62" s="220"/>
+      <c r="D62" s="198"/>
+      <c r="E62" s="198"/>
+      <c r="F62" s="198"/>
+      <c r="G62" s="198"/>
+      <c r="H62" s="198"/>
+      <c r="I62" s="198"/>
+      <c r="J62" s="198"/>
+      <c r="K62" s="198"/>
       <c r="L62" s="80" t="s">
         <v>401</v>
       </c>
       <c r="M62" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="N62" s="183"/>
+      <c r="N62" s="204"/>
     </row>
     <row r="63" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="186"/>
-      <c r="C63" s="219"/>
-      <c r="D63" s="186"/>
-      <c r="E63" s="186"/>
-      <c r="F63" s="186"/>
-      <c r="G63" s="186"/>
-      <c r="H63" s="186"/>
-      <c r="I63" s="186"/>
-      <c r="J63" s="186"/>
-      <c r="K63" s="186"/>
+      <c r="B63" s="198"/>
+      <c r="C63" s="220"/>
+      <c r="D63" s="198"/>
+      <c r="E63" s="198"/>
+      <c r="F63" s="198"/>
+      <c r="G63" s="198"/>
+      <c r="H63" s="198"/>
+      <c r="I63" s="198"/>
+      <c r="J63" s="198"/>
+      <c r="K63" s="198"/>
       <c r="L63" s="82" t="s">
         <v>241</v>
       </c>
       <c r="M63" s="85" t="s">
         <v>248</v>
       </c>
-      <c r="N63" s="183"/>
+      <c r="N63" s="204"/>
     </row>
     <row r="64" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="186"/>
-      <c r="C64" s="219"/>
-      <c r="D64" s="186"/>
-      <c r="E64" s="186"/>
-      <c r="F64" s="186"/>
-      <c r="G64" s="186"/>
-      <c r="H64" s="186"/>
-      <c r="I64" s="186"/>
-      <c r="J64" s="186"/>
-      <c r="K64" s="186"/>
+      <c r="B64" s="198"/>
+      <c r="C64" s="220"/>
+      <c r="D64" s="198"/>
+      <c r="E64" s="198"/>
+      <c r="F64" s="198"/>
+      <c r="G64" s="198"/>
+      <c r="H64" s="198"/>
+      <c r="I64" s="198"/>
+      <c r="J64" s="198"/>
+      <c r="K64" s="198"/>
       <c r="L64" s="82" t="s">
         <v>398</v>
       </c>
       <c r="M64" s="85" t="s">
         <v>399</v>
       </c>
-      <c r="N64" s="183"/>
+      <c r="N64" s="204"/>
     </row>
     <row r="65" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="186"/>
-      <c r="C65" s="219"/>
-      <c r="D65" s="186"/>
-      <c r="E65" s="186"/>
-      <c r="F65" s="186"/>
-      <c r="G65" s="186"/>
-      <c r="H65" s="186"/>
-      <c r="I65" s="186"/>
-      <c r="J65" s="186"/>
-      <c r="K65" s="186"/>
+      <c r="B65" s="198"/>
+      <c r="C65" s="220"/>
+      <c r="D65" s="198"/>
+      <c r="E65" s="198"/>
+      <c r="F65" s="198"/>
+      <c r="G65" s="198"/>
+      <c r="H65" s="198"/>
+      <c r="I65" s="198"/>
+      <c r="J65" s="198"/>
+      <c r="K65" s="198"/>
       <c r="L65" s="82" t="s">
         <v>242</v>
       </c>
       <c r="M65" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="N65" s="183"/>
+      <c r="N65" s="204"/>
     </row>
     <row r="66" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="186"/>
-      <c r="C66" s="219"/>
-      <c r="D66" s="186"/>
-      <c r="E66" s="186"/>
-      <c r="F66" s="186"/>
-      <c r="G66" s="186"/>
-      <c r="H66" s="186"/>
-      <c r="I66" s="186"/>
-      <c r="J66" s="186"/>
-      <c r="K66" s="186"/>
+      <c r="B66" s="198"/>
+      <c r="C66" s="220"/>
+      <c r="D66" s="198"/>
+      <c r="E66" s="198"/>
+      <c r="F66" s="198"/>
+      <c r="G66" s="198"/>
+      <c r="H66" s="198"/>
+      <c r="I66" s="198"/>
+      <c r="J66" s="198"/>
+      <c r="K66" s="198"/>
       <c r="L66" s="82" t="s">
         <v>243</v>
       </c>
       <c r="M66" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="N66" s="183"/>
+      <c r="N66" s="204"/>
     </row>
     <row r="67" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="186"/>
-      <c r="C67" s="219"/>
-      <c r="D67" s="186"/>
-      <c r="E67" s="186"/>
-      <c r="F67" s="186"/>
-      <c r="G67" s="186"/>
-      <c r="H67" s="186"/>
-      <c r="I67" s="186"/>
-      <c r="J67" s="186"/>
-      <c r="K67" s="186"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="220"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="198"/>
+      <c r="F67" s="198"/>
+      <c r="G67" s="198"/>
+      <c r="H67" s="198"/>
+      <c r="I67" s="198"/>
+      <c r="J67" s="198"/>
+      <c r="K67" s="198"/>
       <c r="L67" s="82" t="s">
         <v>244</v>
       </c>
       <c r="M67" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="N67" s="183"/>
+      <c r="N67" s="204"/>
     </row>
     <row r="68" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="186"/>
-      <c r="C68" s="219"/>
-      <c r="D68" s="186"/>
-      <c r="E68" s="186"/>
-      <c r="F68" s="186"/>
-      <c r="G68" s="186"/>
-      <c r="H68" s="186"/>
-      <c r="I68" s="186"/>
-      <c r="J68" s="186"/>
-      <c r="K68" s="186"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="198"/>
+      <c r="E68" s="198"/>
+      <c r="F68" s="198"/>
+      <c r="G68" s="198"/>
+      <c r="H68" s="198"/>
+      <c r="I68" s="198"/>
+      <c r="J68" s="198"/>
+      <c r="K68" s="198"/>
       <c r="L68" s="82" t="s">
         <v>245</v>
       </c>
       <c r="M68" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="N68" s="183"/>
+      <c r="N68" s="204"/>
     </row>
     <row r="69" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="186"/>
-      <c r="C69" s="219"/>
-      <c r="D69" s="186"/>
-      <c r="E69" s="186"/>
-      <c r="F69" s="186"/>
-      <c r="G69" s="186"/>
-      <c r="H69" s="186"/>
-      <c r="I69" s="186"/>
-      <c r="J69" s="186"/>
-      <c r="K69" s="186"/>
+      <c r="B69" s="198"/>
+      <c r="C69" s="220"/>
+      <c r="D69" s="198"/>
+      <c r="E69" s="198"/>
+      <c r="F69" s="198"/>
+      <c r="G69" s="198"/>
+      <c r="H69" s="198"/>
+      <c r="I69" s="198"/>
+      <c r="J69" s="198"/>
+      <c r="K69" s="198"/>
       <c r="L69" s="82" t="s">
         <v>246</v>
       </c>
       <c r="M69" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="N69" s="183"/>
+      <c r="N69" s="204"/>
     </row>
     <row r="70" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="186"/>
-      <c r="C70" s="219"/>
-      <c r="D70" s="186"/>
-      <c r="E70" s="186"/>
-      <c r="F70" s="186"/>
-      <c r="G70" s="186"/>
-      <c r="H70" s="186"/>
-      <c r="I70" s="186"/>
-      <c r="J70" s="186"/>
-      <c r="K70" s="186"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="220"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="198"/>
+      <c r="F70" s="198"/>
+      <c r="G70" s="198"/>
+      <c r="H70" s="198"/>
+      <c r="I70" s="198"/>
+      <c r="J70" s="198"/>
+      <c r="K70" s="198"/>
       <c r="L70" s="82" t="s">
         <v>247</v>
       </c>
       <c r="M70" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="N70" s="183"/>
+      <c r="N70" s="204"/>
     </row>
     <row r="71" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="186"/>
-      <c r="C71" s="219"/>
-      <c r="D71" s="186"/>
-      <c r="E71" s="186"/>
-      <c r="F71" s="186"/>
-      <c r="G71" s="186"/>
-      <c r="H71" s="186"/>
-      <c r="I71" s="186"/>
-      <c r="J71" s="186"/>
-      <c r="K71" s="186"/>
+      <c r="B71" s="198"/>
+      <c r="C71" s="220"/>
+      <c r="D71" s="198"/>
+      <c r="E71" s="198"/>
+      <c r="F71" s="198"/>
+      <c r="G71" s="198"/>
+      <c r="H71" s="198"/>
+      <c r="I71" s="198"/>
+      <c r="J71" s="198"/>
+      <c r="K71" s="198"/>
       <c r="L71" s="82" t="s">
         <v>256</v>
       </c>
       <c r="M71" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="N71" s="183"/>
+      <c r="N71" s="204"/>
     </row>
     <row r="72" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="187"/>
-      <c r="C72" s="231"/>
-      <c r="D72" s="192"/>
-      <c r="E72" s="192"/>
-      <c r="F72" s="192"/>
-      <c r="G72" s="192"/>
-      <c r="H72" s="192"/>
-      <c r="I72" s="192"/>
-      <c r="J72" s="192"/>
-      <c r="K72" s="192"/>
-      <c r="L72" s="174"/>
-      <c r="M72" s="178"/>
-      <c r="N72" s="184"/>
+      <c r="B72" s="199"/>
+      <c r="C72" s="228"/>
+      <c r="D72" s="202"/>
+      <c r="E72" s="202"/>
+      <c r="F72" s="202"/>
+      <c r="G72" s="202"/>
+      <c r="H72" s="202"/>
+      <c r="I72" s="202"/>
+      <c r="J72" s="202"/>
+      <c r="K72" s="202"/>
+      <c r="L72" s="189"/>
+      <c r="M72" s="190"/>
+      <c r="N72" s="205"/>
     </row>
     <row r="73" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
@@ -14470,8 +14468,8 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="211"/>
-      <c r="M73" s="180"/>
+      <c r="L73" s="212"/>
+      <c r="M73" s="188"/>
       <c r="N73" s="8"/>
     </row>
     <row r="74" spans="2:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14492,10 +14490,10 @@
       <c r="I74" s="24"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
-      <c r="L74" s="174" t="s">
+      <c r="L74" s="189" t="s">
         <v>291</v>
       </c>
-      <c r="M74" s="178"/>
+      <c r="M74" s="190"/>
       <c r="N74" s="29"/>
     </row>
     <row r="75" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14516,10 +14514,10 @@
       <c r="I75" s="67"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
-      <c r="L75" s="212" t="s">
+      <c r="L75" s="211" t="s">
         <v>406</v>
       </c>
-      <c r="M75" s="176"/>
+      <c r="M75" s="207"/>
       <c r="N75" s="29"/>
     </row>
     <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -14540,10 +14538,10 @@
       <c r="I76" s="67"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="212" t="s">
+      <c r="L76" s="211" t="s">
         <v>407</v>
       </c>
-      <c r="M76" s="176"/>
+      <c r="M76" s="207"/>
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -14564,10 +14562,10 @@
       <c r="I77" s="67"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
-      <c r="L77" s="212" t="s">
+      <c r="L77" s="211" t="s">
         <v>408</v>
       </c>
-      <c r="M77" s="176"/>
+      <c r="M77" s="207"/>
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -14588,10 +14586,10 @@
       <c r="I78" s="35"/>
       <c r="J78" s="34"/>
       <c r="K78" s="34"/>
-      <c r="L78" s="212" t="s">
+      <c r="L78" s="211" t="s">
         <v>409</v>
       </c>
-      <c r="M78" s="176"/>
+      <c r="M78" s="207"/>
       <c r="N78" s="29"/>
     </row>
     <row r="79" spans="2:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -14612,10 +14610,10 @@
       <c r="I79" s="35"/>
       <c r="J79" s="34"/>
       <c r="K79" s="34"/>
-      <c r="L79" s="212" t="s">
+      <c r="L79" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="M79" s="176"/>
+      <c r="M79" s="207"/>
       <c r="N79" s="29"/>
     </row>
     <row r="80" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -14631,8 +14629,8 @@
       <c r="I80" s="132"/>
       <c r="J80" s="132"/>
       <c r="K80" s="132"/>
-      <c r="L80" s="179"/>
-      <c r="M80" s="180"/>
+      <c r="L80" s="187"/>
+      <c r="M80" s="188"/>
       <c r="N80" s="8"/>
     </row>
     <row r="81" spans="2:14" ht="52" x14ac:dyDescent="0.2">
@@ -14653,30 +14651,30 @@
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
-      <c r="L81" s="174" t="s">
+      <c r="L81" s="189" t="s">
         <v>224</v>
       </c>
-      <c r="M81" s="178"/>
+      <c r="M81" s="190"/>
       <c r="N81" s="27" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="82" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
-      <c r="C82" s="227" t="s">
+      <c r="C82" s="231" t="s">
         <v>410</v>
       </c>
-      <c r="D82" s="228"/>
-      <c r="E82" s="228"/>
-      <c r="F82" s="228"/>
-      <c r="G82" s="228"/>
-      <c r="H82" s="228"/>
-      <c r="I82" s="228"/>
-      <c r="J82" s="228"/>
-      <c r="K82" s="228"/>
-      <c r="L82" s="228"/>
-      <c r="M82" s="228"/>
-      <c r="N82" s="229"/>
+      <c r="D82" s="232"/>
+      <c r="E82" s="232"/>
+      <c r="F82" s="232"/>
+      <c r="G82" s="232"/>
+      <c r="H82" s="232"/>
+      <c r="I82" s="232"/>
+      <c r="J82" s="232"/>
+      <c r="K82" s="232"/>
+      <c r="L82" s="232"/>
+      <c r="M82" s="232"/>
+      <c r="N82" s="233"/>
     </row>
     <row r="83" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
@@ -14696,10 +14694,10 @@
       <c r="I83" s="24"/>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
-      <c r="L83" s="233" t="s">
+      <c r="L83" s="230" t="s">
         <v>412</v>
       </c>
-      <c r="M83" s="178"/>
+      <c r="M83" s="190"/>
       <c r="N83" s="133" t="s">
         <v>422</v>
       </c>
@@ -14722,10 +14720,10 @@
       <c r="I84" s="24"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
-      <c r="L84" s="212" t="s">
+      <c r="L84" s="211" t="s">
         <v>423</v>
       </c>
-      <c r="M84" s="178"/>
+      <c r="M84" s="190"/>
       <c r="N84" s="29"/>
     </row>
     <row r="85" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -14746,10 +14744,10 @@
       <c r="I85" s="46"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
-      <c r="L85" s="212" t="s">
+      <c r="L85" s="211" t="s">
         <v>426</v>
       </c>
-      <c r="M85" s="178"/>
+      <c r="M85" s="190"/>
       <c r="N85" s="29"/>
     </row>
     <row r="86" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14770,10 +14768,10 @@
       </c>
       <c r="J86" s="34"/>
       <c r="K86" s="34"/>
-      <c r="L86" s="212" t="s">
+      <c r="L86" s="211" t="s">
         <v>427</v>
       </c>
-      <c r="M86" s="178"/>
+      <c r="M86" s="190"/>
       <c r="N86" s="29"/>
     </row>
     <row r="87" spans="2:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14794,28 +14792,28 @@
       </c>
       <c r="J87" s="34"/>
       <c r="K87" s="34"/>
-      <c r="L87" s="212" t="s">
+      <c r="L87" s="211" t="s">
         <v>428</v>
       </c>
-      <c r="M87" s="178"/>
+      <c r="M87" s="190"/>
       <c r="N87" s="48"/>
     </row>
     <row r="88" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
-      <c r="C88" s="227" t="s">
+      <c r="C88" s="231" t="s">
         <v>417</v>
       </c>
-      <c r="D88" s="228"/>
-      <c r="E88" s="228"/>
-      <c r="F88" s="228"/>
-      <c r="G88" s="228"/>
-      <c r="H88" s="228"/>
-      <c r="I88" s="228"/>
-      <c r="J88" s="228"/>
-      <c r="K88" s="228"/>
-      <c r="L88" s="228"/>
-      <c r="M88" s="228"/>
-      <c r="N88" s="229"/>
+      <c r="D88" s="232"/>
+      <c r="E88" s="232"/>
+      <c r="F88" s="232"/>
+      <c r="G88" s="232"/>
+      <c r="H88" s="232"/>
+      <c r="I88" s="232"/>
+      <c r="J88" s="232"/>
+      <c r="K88" s="232"/>
+      <c r="L88" s="232"/>
+      <c r="M88" s="232"/>
+      <c r="N88" s="233"/>
     </row>
     <row r="89" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
@@ -14835,10 +14833,10 @@
       <c r="I89" s="24"/>
       <c r="J89" s="25"/>
       <c r="K89" s="25"/>
-      <c r="L89" s="174" t="s">
+      <c r="L89" s="189" t="s">
         <v>424</v>
       </c>
-      <c r="M89" s="232"/>
+      <c r="M89" s="229"/>
       <c r="N89" s="29"/>
     </row>
     <row r="90" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14859,10 +14857,10 @@
       <c r="I90" s="35"/>
       <c r="J90" s="34"/>
       <c r="K90" s="34"/>
-      <c r="L90" s="174" t="s">
+      <c r="L90" s="189" t="s">
         <v>425</v>
       </c>
-      <c r="M90" s="232"/>
+      <c r="M90" s="229"/>
       <c r="N90" s="29"/>
     </row>
     <row r="91" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14883,10 +14881,10 @@
       <c r="I91" s="35"/>
       <c r="J91" s="34"/>
       <c r="K91" s="34"/>
-      <c r="L91" s="233" t="s">
+      <c r="L91" s="230" t="s">
         <v>33</v>
       </c>
-      <c r="M91" s="232"/>
+      <c r="M91" s="229"/>
       <c r="N91" s="29"/>
     </row>
     <row r="92" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14907,15 +14905,97 @@
       <c r="I92" s="35"/>
       <c r="J92" s="34"/>
       <c r="K92" s="34"/>
-      <c r="L92" s="230" t="s">
+      <c r="L92" s="227" t="s">
         <v>429</v>
       </c>
-      <c r="M92" s="176"/>
+      <c r="M92" s="207"/>
       <c r="N92" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:N92"/>
   <mergeCells count="106">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C88:N88"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C82:N82"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
     <mergeCell ref="N61:N72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="L92:M92"/>
@@ -14940,88 +15020,6 @@
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="L75:M75"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C88:N88"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C82:N82"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -15080,41 +15078,41 @@
       <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="str">
+      <c r="B3" s="162" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA conf.(External storage)</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="159"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
       <c r="O3" s="20"/>
       <c r="P3" s="19"/>
     </row>
@@ -15206,33 +15204,33 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="161" t="s">
+      <c r="C9" s="169"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="160" t="s">
+      <c r="F9" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="172" t="s">
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="158" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="162"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="167"/>
       <c r="F10" s="71" t="s">
         <v>34</v>
       </c>
@@ -15257,14 +15255,14 @@
       <c r="M10" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="173"/>
+      <c r="N10" s="159"/>
     </row>
     <row r="11" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="56">
         <v>777</v>
       </c>
@@ -15287,11 +15285,11 @@
       <c r="N11" s="68"/>
     </row>
     <row r="12" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="155" t="s">
         <v>443</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="56">
         <v>777</v>
       </c>
@@ -15314,11 +15312,11 @@
       <c r="N12" s="68"/>
     </row>
     <row r="13" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="171"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="56">
         <v>777</v>
       </c>
@@ -15366,11 +15364,11 @@
       <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="56">
         <v>777</v>
       </c>
@@ -15387,11 +15385,11 @@
       <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="157"/>
       <c r="E16" s="56">
         <v>777</v>
       </c>
@@ -15410,11 +15408,11 @@
       <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="169" t="s">
+      <c r="B17" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="170"/>
-      <c r="D17" s="171"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="157"/>
       <c r="E17" s="56">
         <v>777</v>
       </c>
@@ -15433,11 +15431,11 @@
       <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="56">
         <v>777</v>
       </c>
@@ -15456,11 +15454,11 @@
       <c r="N18" s="68"/>
     </row>
     <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="169" t="s">
+      <c r="B19" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="157"/>
       <c r="E19" s="56">
         <v>755</v>
       </c>
@@ -15479,11 +15477,11 @@
       <c r="N19" s="68"/>
     </row>
     <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="169" t="s">
+      <c r="B20" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
       <c r="E20" s="56">
         <v>755</v>
       </c>
@@ -15502,11 +15500,11 @@
       <c r="N20" s="68"/>
     </row>
     <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
       <c r="E21" s="56">
         <v>755</v>
       </c>
@@ -15525,11 +15523,11 @@
       <c r="N21" s="68"/>
     </row>
     <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
       <c r="E22" s="56">
         <v>755</v>
       </c>
@@ -15548,11 +15546,11 @@
       <c r="N22" s="68"/>
     </row>
     <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
       <c r="E23" s="56">
         <v>777</v>
       </c>
@@ -15588,6 +15586,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
@@ -15596,16 +15604,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15655,18 +15653,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="19" t="s">
         <v>107</v>
       </c>
@@ -15674,19 +15672,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="str">
+      <c r="B3" s="162" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration (DBMS)</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="52" t="s">
         <v>17</v>
       </c>
@@ -15790,33 +15788,33 @@
       <c r="N9" s="19"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="195" t="s">
+      <c r="C10" s="193" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="197" t="s">
+      <c r="D10" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="206" t="s">
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="207"/>
-      <c r="N10" s="201" t="s">
+      <c r="M10" s="184"/>
+      <c r="N10" s="177" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="194"/>
-      <c r="C11" s="196"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="194"/>
       <c r="D11" s="4" t="s">
         <v>111</v>
       </c>
@@ -15841,9 +15839,9 @@
       <c r="K11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="208"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="202"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="178"/>
     </row>
     <row r="12" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
@@ -15858,8 +15856,8 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="180"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="188"/>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15867,23 +15865,23 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="203" t="s">
+      <c r="C13" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="191" t="s">
+      <c r="D13" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="191"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="174" t="s">
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="189" t="s">
         <v>225</v>
       </c>
-      <c r="M13" s="178"/>
+      <c r="M13" s="190"/>
       <c r="N13" s="16" t="s">
         <v>227</v>
       </c>
@@ -15893,19 +15891,19 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="199"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="174" t="s">
+      <c r="C14" s="175"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="178"/>
+      <c r="M14" s="190"/>
       <c r="N14" s="26"/>
     </row>
     <row r="15" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15913,19 +15911,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="200"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="174" t="s">
+      <c r="C15" s="176"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="178"/>
+      <c r="M15" s="190"/>
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -15941,11 +15939,11 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="180"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="188"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="39" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <f>MAX(B$10:B16)+1</f>
         <v>4</v>
@@ -15963,10 +15961,10 @@
       <c r="I17" s="70"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="174" t="s">
+      <c r="L17" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="178"/>
+      <c r="M17" s="190"/>
       <c r="N17" s="27" t="s">
         <v>126</v>
       </c>
@@ -15984,8 +15982,8 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="180"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="188"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16006,99 +16004,99 @@
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="177" t="s">
+      <c r="L19" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="M19" s="178"/>
+      <c r="M19" s="190"/>
       <c r="N19" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="185">
+      <c r="B20" s="197">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="188" t="s">
+      <c r="C20" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="191" t="s">
+      <c r="D20" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="191"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="191"/>
-      <c r="K20" s="191"/>
-      <c r="L20" s="174" t="s">
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="178"/>
-      <c r="N20" s="182"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="186">
+      <c r="B21" s="198">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="189"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="186"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
       <c r="L21" s="80" t="s">
         <v>129</v>
       </c>
       <c r="M21" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="N21" s="183"/>
+      <c r="N21" s="204"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="186">
+      <c r="B22" s="198">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="189"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="186"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="198"/>
       <c r="L22" s="82" t="s">
         <v>132</v>
       </c>
       <c r="M22" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="N22" s="183"/>
+      <c r="N22" s="204"/>
     </row>
     <row r="23" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="187">
+      <c r="B23" s="199">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="190"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="177"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="184"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="202"/>
+      <c r="L23" s="206"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
@@ -16117,7 +16115,7 @@
       <c r="M24" s="78"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="2:14" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" ht="195" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
@@ -16135,10 +16133,10 @@
       <c r="I25" s="70"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="174" t="s">
+      <c r="L25" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="M25" s="176"/>
+      <c r="M25" s="207"/>
       <c r="N25" s="27" t="s">
         <v>137</v>
       </c>
@@ -16148,7 +16146,7 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="188" t="s">
+      <c r="C26" s="174" t="s">
         <v>139</v>
       </c>
       <c r="D26" s="70" t="s">
@@ -16161,10 +16159,10 @@
       <c r="I26" s="70"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="174" t="s">
+      <c r="L26" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="M26" s="176"/>
+      <c r="M26" s="207"/>
       <c r="N26" s="27" t="s">
         <v>138</v>
       </c>
@@ -16174,7 +16172,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="199"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="70" t="s">
         <v>5</v>
       </c>
@@ -16185,10 +16183,10 @@
       <c r="I27" s="70"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="174" t="s">
+      <c r="L27" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="176"/>
+      <c r="M27" s="207"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16196,7 +16194,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="200"/>
+      <c r="C28" s="176"/>
       <c r="D28" s="70" t="s">
         <v>5</v>
       </c>
@@ -16207,10 +16205,10 @@
       <c r="I28" s="70"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="174" t="s">
+      <c r="L28" s="189" t="s">
         <v>141</v>
       </c>
-      <c r="M28" s="176"/>
+      <c r="M28" s="207"/>
       <c r="N28" s="27" t="s">
         <v>142</v>
       </c>
@@ -16233,10 +16231,10 @@
       <c r="I29" s="70"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="174" t="s">
+      <c r="L29" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="176"/>
+      <c r="M29" s="207"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="35.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16257,10 +16255,10 @@
       <c r="I30" s="70"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="174" t="s">
+      <c r="L30" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="M30" s="176"/>
+      <c r="M30" s="207"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16281,10 +16279,10 @@
       <c r="I31" s="70"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="174" t="s">
+      <c r="L31" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="176"/>
+      <c r="M31" s="207"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16305,10 +16303,10 @@
       <c r="I32" s="35"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
-      <c r="L32" s="174" t="s">
+      <c r="L32" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="176"/>
+      <c r="M32" s="207"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -16324,8 +16322,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="180"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="188"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16346,10 +16344,10 @@
       <c r="I34" s="70"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="181" t="s">
+      <c r="L34" s="208" t="s">
         <v>162</v>
       </c>
-      <c r="M34" s="178"/>
+      <c r="M34" s="190"/>
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16370,10 +16368,10 @@
       <c r="I35" s="70"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
-      <c r="L35" s="181" t="s">
+      <c r="L35" s="208" t="s">
         <v>163</v>
       </c>
-      <c r="M35" s="178"/>
+      <c r="M35" s="190"/>
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" ht="35.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16394,10 +16392,10 @@
       <c r="I36" s="70"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
-      <c r="L36" s="181" t="s">
+      <c r="L36" s="208" t="s">
         <v>164</v>
       </c>
-      <c r="M36" s="178"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" ht="35.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16418,10 +16416,10 @@
       <c r="I37" s="70"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="181" t="s">
+      <c r="L37" s="208" t="s">
         <v>165</v>
       </c>
-      <c r="M37" s="178"/>
+      <c r="M37" s="190"/>
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16442,10 +16440,10 @@
       <c r="I38" s="70"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="174" t="s">
+      <c r="L38" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="178"/>
+      <c r="M38" s="190"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16466,10 +16464,10 @@
       <c r="I39" s="70"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="174" t="s">
+      <c r="L39" s="189" t="s">
         <v>445</v>
       </c>
-      <c r="M39" s="178"/>
+      <c r="M39" s="190"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16490,10 +16488,10 @@
       <c r="I40" s="70"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="174" t="s">
+      <c r="L40" s="189" t="s">
         <v>446</v>
       </c>
-      <c r="M40" s="175"/>
+      <c r="M40" s="209"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16516,10 +16514,10 @@
       <c r="I41" s="70"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="174" t="s">
+      <c r="L41" s="189" t="s">
         <v>447</v>
       </c>
-      <c r="M41" s="176"/>
+      <c r="M41" s="207"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16542,10 +16540,10 @@
         <v>5</v>
       </c>
       <c r="K42" s="25"/>
-      <c r="L42" s="174" t="s">
+      <c r="L42" s="189" t="s">
         <v>448</v>
       </c>
-      <c r="M42" s="175"/>
+      <c r="M42" s="209"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -16566,10 +16564,10 @@
       <c r="I43" s="142"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="174" t="s">
+      <c r="L43" s="189" t="s">
         <v>449</v>
       </c>
-      <c r="M43" s="175"/>
+      <c r="M43" s="209"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -16590,10 +16588,10 @@
       <c r="I44" s="35"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
-      <c r="L44" s="174" t="s">
+      <c r="L44" s="189" t="s">
         <v>450</v>
       </c>
-      <c r="M44" s="175"/>
+      <c r="M44" s="209"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -16616,10 +16614,10 @@
       <c r="I45" s="35"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
-      <c r="L45" s="174" t="s">
+      <c r="L45" s="189" t="s">
         <v>451</v>
       </c>
-      <c r="M45" s="175"/>
+      <c r="M45" s="209"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -16640,10 +16638,10 @@
       <c r="I46" s="143"/>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
-      <c r="L46" s="174" t="s">
+      <c r="L46" s="189" t="s">
         <v>452</v>
       </c>
-      <c r="M46" s="175"/>
+      <c r="M46" s="209"/>
       <c r="N46" s="36"/>
     </row>
     <row r="47" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -16664,10 +16662,10 @@
       </c>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="174" t="s">
+      <c r="L47" s="189" t="s">
         <v>453</v>
       </c>
-      <c r="M47" s="175"/>
+      <c r="M47" s="209"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -16688,10 +16686,10 @@
         <v>5</v>
       </c>
       <c r="K48" s="25"/>
-      <c r="L48" s="174" t="s">
+      <c r="L48" s="189" t="s">
         <v>454</v>
       </c>
-      <c r="M48" s="175"/>
+      <c r="M48" s="209"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -16712,15 +16710,62 @@
       <c r="K49" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="174" t="s">
+      <c r="L49" s="189" t="s">
         <v>455</v>
       </c>
-      <c r="M49" s="176"/>
+      <c r="M49" s="207"/>
       <c r="N49" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B11:N49"/>
   <mergeCells count="63">
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:K10"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="C13:C15"/>
@@ -16737,53 +16782,6 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16807,7 +16805,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20:M20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -16837,18 +16835,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="19" t="s">
         <v>166</v>
       </c>
@@ -16856,19 +16854,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="str">
+      <c r="B3" s="162" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration (backyard)</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="53" t="s">
         <v>167</v>
       </c>
@@ -16989,33 +16987,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="193" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="206" t="s">
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="183" t="s">
         <v>169</v>
       </c>
-      <c r="M11" s="207"/>
-      <c r="N11" s="201" t="s">
+      <c r="M11" s="184"/>
+      <c r="N11" s="177" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="4" t="s">
         <v>111</v>
       </c>
@@ -17040,9 +17038,9 @@
       <c r="K12" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="L12" s="208"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="202"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="178"/>
     </row>
     <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
@@ -17057,8 +17055,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="180"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="188"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="65" x14ac:dyDescent="0.2">
@@ -17066,23 +17064,23 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="203" t="s">
+      <c r="C14" s="179" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="191" t="s">
+      <c r="D14" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="174" t="s">
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="189" t="s">
         <v>233</v>
       </c>
-      <c r="M14" s="178"/>
+      <c r="M14" s="190"/>
       <c r="N14" s="16" t="s">
         <v>228</v>
       </c>
@@ -17092,19 +17090,19 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="199"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="174" t="s">
+      <c r="C15" s="175"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="176"/>
+      <c r="M15" s="207"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -17112,19 +17110,19 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="174" t="s">
+      <c r="C16" s="176"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="189" t="s">
         <v>226</v>
       </c>
-      <c r="M16" s="176"/>
+      <c r="M16" s="207"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -17144,7 +17142,7 @@
       <c r="M17" s="15"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="39" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <f>MAX(B$11:B17)+1</f>
         <v>4</v>
@@ -17162,10 +17160,10 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="174" t="s">
+      <c r="L18" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="176"/>
+      <c r="M18" s="207"/>
       <c r="N18" s="27" t="s">
         <v>352</v>
       </c>
@@ -17205,10 +17203,10 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="174" t="s">
+      <c r="L20" s="189" t="s">
         <v>477</v>
       </c>
-      <c r="M20" s="178"/>
+      <c r="M20" s="190"/>
       <c r="N20" s="27" t="s">
         <v>474</v>
       </c>
@@ -17231,10 +17229,10 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="174" t="s">
+      <c r="L21" s="189" t="s">
         <v>229</v>
       </c>
-      <c r="M21" s="178"/>
+      <c r="M21" s="190"/>
       <c r="N21" s="27" t="s">
         <v>355</v>
       </c>
@@ -17257,10 +17255,10 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="174" t="s">
+      <c r="L22" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="178"/>
+      <c r="M22" s="190"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="65" x14ac:dyDescent="0.2">
@@ -17281,10 +17279,10 @@
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="174" t="s">
+      <c r="L23" s="189" t="s">
         <v>457</v>
       </c>
-      <c r="M23" s="178"/>
+      <c r="M23" s="190"/>
       <c r="N23" s="27" t="s">
         <v>458</v>
       </c>
@@ -17294,23 +17292,23 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="203" t="s">
+      <c r="C24" s="179" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="191" t="s">
+      <c r="D24" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="191"/>
-      <c r="L24" s="174" t="s">
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="189" t="s">
         <v>230</v>
       </c>
-      <c r="M24" s="178"/>
+      <c r="M24" s="190"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="2:14" ht="104" x14ac:dyDescent="0.2">
@@ -17318,19 +17316,19 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="199"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="174" t="s">
+      <c r="C25" s="175"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="189" t="s">
         <v>231</v>
       </c>
-      <c r="M25" s="178"/>
+      <c r="M25" s="190"/>
       <c r="N25" s="27" t="s">
         <v>232</v>
       </c>
@@ -17348,8 +17346,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="180"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="188"/>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17370,10 +17368,10 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="174" t="s">
+      <c r="L27" s="189" t="s">
         <v>234</v>
       </c>
-      <c r="M27" s="176"/>
+      <c r="M27" s="207"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17394,10 +17392,10 @@
       <c r="I28" s="24"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="174" t="s">
+      <c r="L28" s="189" t="s">
         <v>257</v>
       </c>
-      <c r="M28" s="176"/>
+      <c r="M28" s="207"/>
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="2:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17418,10 +17416,10 @@
       <c r="I29" s="35"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
-      <c r="L29" s="174" t="s">
+      <c r="L29" s="189" t="s">
         <v>235</v>
       </c>
-      <c r="M29" s="176"/>
+      <c r="M29" s="207"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -17437,8 +17435,8 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="180"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="188"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17459,10 +17457,10 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="181" t="s">
+      <c r="L31" s="208" t="s">
         <v>236</v>
       </c>
-      <c r="M31" s="178"/>
+      <c r="M31" s="190"/>
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="2:14" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -17483,221 +17481,221 @@
       <c r="I32" s="73"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="181" t="s">
+      <c r="L32" s="208" t="s">
         <v>240</v>
       </c>
-      <c r="M32" s="178"/>
+      <c r="M32" s="190"/>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="185">
+      <c r="B33" s="197">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="203" t="s">
+      <c r="C33" s="179" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="191" t="s">
+      <c r="D33" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="174" t="s">
+      <c r="E33" s="180"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="189" t="s">
         <v>336</v>
       </c>
-      <c r="M33" s="178"/>
-      <c r="N33" s="182"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="203"/>
     </row>
     <row r="34" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="186"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="198"/>
       <c r="L34" s="80" t="s">
         <v>238</v>
       </c>
       <c r="M34" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="N34" s="183"/>
+      <c r="N34" s="204"/>
     </row>
     <row r="35" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="186"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="186"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="200"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="198"/>
       <c r="L35" s="82" t="s">
         <v>241</v>
       </c>
       <c r="M35" s="85" t="s">
         <v>248</v>
       </c>
-      <c r="N35" s="183"/>
+      <c r="N35" s="204"/>
     </row>
     <row r="36" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="186"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="186"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="198"/>
       <c r="L36" s="82" t="s">
         <v>242</v>
       </c>
       <c r="M36" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="N36" s="183"/>
+      <c r="N36" s="204"/>
     </row>
     <row r="37" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="186"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="186"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="198"/>
       <c r="L37" s="82" t="s">
         <v>243</v>
       </c>
       <c r="M37" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="N37" s="183"/>
+      <c r="N37" s="204"/>
     </row>
     <row r="38" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="186"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="186"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="198"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="198"/>
       <c r="L38" s="82" t="s">
         <v>244</v>
       </c>
       <c r="M38" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="N38" s="183"/>
+      <c r="N38" s="204"/>
     </row>
     <row r="39" spans="2:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="186"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="186"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="198"/>
       <c r="L39" s="82" t="s">
         <v>245</v>
       </c>
       <c r="M39" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="N39" s="183"/>
+      <c r="N39" s="204"/>
     </row>
     <row r="40" spans="2:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="186"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="186"/>
-      <c r="K40" s="186"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="200"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="198"/>
       <c r="L40" s="82" t="s">
         <v>246</v>
       </c>
       <c r="M40" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="N40" s="183"/>
+      <c r="N40" s="204"/>
     </row>
     <row r="41" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="186"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="186"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="200"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="198"/>
       <c r="L41" s="82" t="s">
         <v>247</v>
       </c>
       <c r="M41" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="N41" s="183"/>
+      <c r="N41" s="204"/>
     </row>
     <row r="42" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="186"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="186"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="200"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="198"/>
+      <c r="K42" s="198"/>
       <c r="L42" s="82" t="s">
         <v>256</v>
       </c>
       <c r="M42" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="N42" s="183"/>
+      <c r="N42" s="204"/>
     </row>
     <row r="43" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="187"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="192"/>
-      <c r="G43" s="192"/>
-      <c r="H43" s="192"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="184"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
+      <c r="K43" s="202"/>
+      <c r="L43" s="189"/>
+      <c r="M43" s="190"/>
+      <c r="N43" s="205"/>
     </row>
     <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
@@ -17717,10 +17715,10 @@
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="174" t="s">
+      <c r="L44" s="189" t="s">
         <v>258</v>
       </c>
-      <c r="M44" s="176"/>
+      <c r="M44" s="207"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -17741,10 +17739,10 @@
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="174" t="s">
+      <c r="L45" s="189" t="s">
         <v>259</v>
       </c>
-      <c r="M45" s="176"/>
+      <c r="M45" s="207"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17765,10 +17763,10 @@
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="174" t="s">
+      <c r="L46" s="189" t="s">
         <v>260</v>
       </c>
-      <c r="M46" s="176"/>
+      <c r="M46" s="207"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17789,10 +17787,10 @@
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="174" t="s">
+      <c r="L47" s="189" t="s">
         <v>261</v>
       </c>
-      <c r="M47" s="176"/>
+      <c r="M47" s="207"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17813,10 +17811,10 @@
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="174" t="s">
+      <c r="L48" s="189" t="s">
         <v>262</v>
       </c>
-      <c r="M48" s="176"/>
+      <c r="M48" s="207"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17840,7 +17838,7 @@
       <c r="L49" s="210" t="s">
         <v>263</v>
       </c>
-      <c r="M49" s="176"/>
+      <c r="M49" s="207"/>
       <c r="N49" s="45"/>
     </row>
     <row r="50" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -17864,7 +17862,7 @@
       <c r="L50" s="210" t="s">
         <v>264</v>
       </c>
-      <c r="M50" s="176"/>
+      <c r="M50" s="207"/>
       <c r="N50" s="45"/>
     </row>
     <row r="51" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -17890,7 +17888,7 @@
       <c r="L51" s="210" t="s">
         <v>265</v>
       </c>
-      <c r="M51" s="176"/>
+      <c r="M51" s="207"/>
       <c r="N51" s="45"/>
     </row>
     <row r="52" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -17916,7 +17914,7 @@
       <c r="L52" s="210" t="s">
         <v>266</v>
       </c>
-      <c r="M52" s="176"/>
+      <c r="M52" s="207"/>
       <c r="N52" s="45"/>
     </row>
     <row r="53" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17940,7 +17938,7 @@
       <c r="L53" s="210" t="s">
         <v>267</v>
       </c>
-      <c r="M53" s="176"/>
+      <c r="M53" s="207"/>
       <c r="N53" s="45"/>
     </row>
     <row r="54" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17964,7 +17962,7 @@
       <c r="L54" s="210" t="s">
         <v>268</v>
       </c>
-      <c r="M54" s="176"/>
+      <c r="M54" s="207"/>
       <c r="N54" s="45"/>
     </row>
     <row r="55" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17990,7 +17988,7 @@
       <c r="L55" s="210" t="s">
         <v>269</v>
       </c>
-      <c r="M55" s="176"/>
+      <c r="M55" s="207"/>
       <c r="N55" s="45"/>
     </row>
     <row r="56" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -18014,7 +18012,7 @@
       <c r="L56" s="210" t="s">
         <v>270</v>
       </c>
-      <c r="M56" s="176"/>
+      <c r="M56" s="207"/>
       <c r="N56" s="45"/>
     </row>
     <row r="57" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -18038,7 +18036,7 @@
       <c r="L57" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="M57" s="176"/>
+      <c r="M57" s="207"/>
       <c r="N57" s="45"/>
     </row>
     <row r="58" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -18062,7 +18060,7 @@
       <c r="L58" s="210" t="s">
         <v>272</v>
       </c>
-      <c r="M58" s="176"/>
+      <c r="M58" s="207"/>
       <c r="N58" s="45"/>
     </row>
     <row r="59" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -18086,7 +18084,7 @@
       <c r="L59" s="210" t="s">
         <v>460</v>
       </c>
-      <c r="M59" s="176"/>
+      <c r="M59" s="207"/>
       <c r="N59" s="45"/>
     </row>
     <row r="60" spans="2:14" ht="91" x14ac:dyDescent="0.2">
@@ -18107,10 +18105,10 @@
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="174" t="s">
+      <c r="L60" s="189" t="s">
         <v>278</v>
       </c>
-      <c r="M60" s="176"/>
+      <c r="M60" s="207"/>
       <c r="N60" s="29" t="s">
         <v>273</v>
       </c>
@@ -18133,10 +18131,10 @@
       <c r="I61" s="24"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="174" t="s">
+      <c r="L61" s="189" t="s">
         <v>274</v>
       </c>
-      <c r="M61" s="176"/>
+      <c r="M61" s="207"/>
       <c r="N61" s="29" t="s">
         <v>276</v>
       </c>
@@ -18159,10 +18157,10 @@
       <c r="I62" s="24"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
-      <c r="L62" s="174" t="s">
+      <c r="L62" s="189" t="s">
         <v>275</v>
       </c>
-      <c r="M62" s="176"/>
+      <c r="M62" s="207"/>
       <c r="N62" s="29" t="s">
         <v>277</v>
       </c>
@@ -18180,8 +18178,8 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="179"/>
-      <c r="M63" s="180"/>
+      <c r="L63" s="187"/>
+      <c r="M63" s="188"/>
       <c r="N63" s="8"/>
     </row>
     <row r="64" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18202,10 +18200,10 @@
       <c r="I64" s="24"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
-      <c r="L64" s="174" t="s">
+      <c r="L64" s="189" t="s">
         <v>279</v>
       </c>
-      <c r="M64" s="178"/>
+      <c r="M64" s="190"/>
       <c r="N64" s="29"/>
     </row>
     <row r="65" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -18226,10 +18224,10 @@
       <c r="I65" s="24"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
-      <c r="L65" s="174" t="s">
+      <c r="L65" s="189" t="s">
         <v>280</v>
       </c>
-      <c r="M65" s="178"/>
+      <c r="M65" s="190"/>
       <c r="N65" s="29"/>
     </row>
     <row r="66" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18250,10 +18248,10 @@
       <c r="I66" s="24"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
-      <c r="L66" s="174" t="s">
+      <c r="L66" s="189" t="s">
         <v>281</v>
       </c>
-      <c r="M66" s="178"/>
+      <c r="M66" s="190"/>
       <c r="N66" s="29"/>
     </row>
     <row r="67" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -18276,10 +18274,10 @@
       <c r="I67" s="24"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="174" t="s">
+      <c r="L67" s="189" t="s">
         <v>282</v>
       </c>
-      <c r="M67" s="178"/>
+      <c r="M67" s="190"/>
       <c r="N67" s="29"/>
     </row>
     <row r="68" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -18302,10 +18300,10 @@
         <v>5</v>
       </c>
       <c r="K68" s="25"/>
-      <c r="L68" s="174" t="s">
+      <c r="L68" s="189" t="s">
         <v>283</v>
       </c>
-      <c r="M68" s="178"/>
+      <c r="M68" s="190"/>
       <c r="N68" s="29"/>
     </row>
     <row r="69" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18326,10 +18324,10 @@
       <c r="I69" s="24"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
-      <c r="L69" s="174" t="s">
+      <c r="L69" s="189" t="s">
         <v>284</v>
       </c>
-      <c r="M69" s="178"/>
+      <c r="M69" s="190"/>
       <c r="N69" s="29"/>
     </row>
     <row r="70" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18350,10 +18348,10 @@
       <c r="I70" s="24"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
-      <c r="L70" s="174" t="s">
+      <c r="L70" s="189" t="s">
         <v>285</v>
       </c>
-      <c r="M70" s="178"/>
+      <c r="M70" s="190"/>
       <c r="N70" s="29"/>
     </row>
     <row r="71" spans="2:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18376,10 +18374,10 @@
       <c r="I71" s="24"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
-      <c r="L71" s="174" t="s">
+      <c r="L71" s="189" t="s">
         <v>286</v>
       </c>
-      <c r="M71" s="178"/>
+      <c r="M71" s="190"/>
       <c r="N71" s="29"/>
     </row>
     <row r="72" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -18400,10 +18398,10 @@
       <c r="I72" s="24"/>
       <c r="J72" s="25"/>
       <c r="K72" s="25"/>
-      <c r="L72" s="174" t="s">
+      <c r="L72" s="189" t="s">
         <v>287</v>
       </c>
-      <c r="M72" s="176"/>
+      <c r="M72" s="207"/>
       <c r="N72" s="29"/>
     </row>
     <row r="73" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -18424,10 +18422,10 @@
       </c>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
-      <c r="L73" s="174" t="s">
+      <c r="L73" s="189" t="s">
         <v>288</v>
       </c>
-      <c r="M73" s="176"/>
+      <c r="M73" s="207"/>
       <c r="N73" s="29"/>
     </row>
     <row r="74" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -18448,10 +18446,10 @@
         <v>5</v>
       </c>
       <c r="K74" s="25"/>
-      <c r="L74" s="174" t="s">
+      <c r="L74" s="189" t="s">
         <v>289</v>
       </c>
-      <c r="M74" s="176"/>
+      <c r="M74" s="207"/>
       <c r="N74" s="29"/>
     </row>
     <row r="75" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -18472,10 +18470,10 @@
       <c r="K75" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L75" s="174" t="s">
+      <c r="L75" s="189" t="s">
         <v>462</v>
       </c>
-      <c r="M75" s="176"/>
+      <c r="M75" s="207"/>
       <c r="N75" s="29"/>
     </row>
     <row r="76" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -18496,10 +18494,10 @@
       <c r="I76" s="24"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="174" t="s">
+      <c r="L76" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="M76" s="176"/>
+      <c r="M76" s="207"/>
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -18520,10 +18518,10 @@
       <c r="I77" s="35"/>
       <c r="J77" s="34"/>
       <c r="K77" s="34"/>
-      <c r="L77" s="174" t="s">
+      <c r="L77" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="M77" s="176"/>
+      <c r="M77" s="207"/>
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -18539,8 +18537,8 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="179"/>
-      <c r="M78" s="180"/>
+      <c r="L78" s="187"/>
+      <c r="M78" s="188"/>
       <c r="N78" s="8"/>
     </row>
     <row r="79" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18561,10 +18559,10 @@
       <c r="I79" s="24"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
-      <c r="L79" s="174" t="s">
+      <c r="L79" s="189" t="s">
         <v>290</v>
       </c>
-      <c r="M79" s="178"/>
+      <c r="M79" s="190"/>
       <c r="N79" s="29"/>
     </row>
     <row r="80" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -18580,8 +18578,8 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="179"/>
-      <c r="M80" s="180"/>
+      <c r="L80" s="187"/>
+      <c r="M80" s="188"/>
       <c r="N80" s="8"/>
     </row>
     <row r="81" spans="2:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18602,10 +18600,10 @@
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
-      <c r="L81" s="174" t="s">
+      <c r="L81" s="189" t="s">
         <v>291</v>
       </c>
-      <c r="M81" s="178"/>
+      <c r="M81" s="190"/>
       <c r="N81" s="29"/>
     </row>
     <row r="82" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -18621,8 +18619,8 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="179"/>
-      <c r="M82" s="180"/>
+      <c r="L82" s="187"/>
+      <c r="M82" s="188"/>
       <c r="N82" s="8"/>
     </row>
     <row r="83" spans="2:14" ht="52" x14ac:dyDescent="0.2">
@@ -18643,10 +18641,10 @@
       <c r="I83" s="35"/>
       <c r="J83" s="34"/>
       <c r="K83" s="34"/>
-      <c r="L83" s="174" t="s">
+      <c r="L83" s="189" t="s">
         <v>224</v>
       </c>
-      <c r="M83" s="178"/>
+      <c r="M83" s="190"/>
       <c r="N83" s="27" t="s">
         <v>292</v>
       </c>
@@ -18654,87 +18652,6 @@
   </sheetData>
   <autoFilter ref="B12:N83"/>
   <mergeCells count="96">
-    <mergeCell ref="N33:N43"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="C33:C43"/>
-    <mergeCell ref="D33:D43"/>
-    <mergeCell ref="E33:E43"/>
-    <mergeCell ref="F33:F43"/>
-    <mergeCell ref="G33:G43"/>
-    <mergeCell ref="H33:H43"/>
-    <mergeCell ref="I33:I43"/>
-    <mergeCell ref="J33:J43"/>
-    <mergeCell ref="K33:K43"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
@@ -18750,6 +18667,87 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N33:N43"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="C33:C43"/>
+    <mergeCell ref="D33:D43"/>
+    <mergeCell ref="E33:E43"/>
+    <mergeCell ref="F33:F43"/>
+    <mergeCell ref="G33:G43"/>
+    <mergeCell ref="H33:H43"/>
+    <mergeCell ref="I33:I43"/>
+    <mergeCell ref="J33:J43"/>
+    <mergeCell ref="K33:K43"/>
+    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -18774,10 +18772,10 @@
   </sheetPr>
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23:M23"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -18806,18 +18804,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="19" t="s">
         <v>166</v>
       </c>
@@ -18825,19 +18823,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="str">
+      <c r="B3" s="162" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(Ansible)</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="53" t="s">
         <v>167</v>
       </c>
@@ -18956,33 +18954,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="206" t="s">
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="207"/>
-      <c r="N11" s="201" t="s">
+      <c r="M11" s="184"/>
+      <c r="N11" s="177" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="4" t="s">
         <v>111</v>
       </c>
@@ -19007,9 +19005,9 @@
       <c r="K12" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="L12" s="208"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="202"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="178"/>
     </row>
     <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
@@ -19024,8 +19022,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="180"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="188"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19033,23 +19031,23 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="203" t="s">
+      <c r="C14" s="179" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191" t="s">
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="174" t="s">
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="189" t="s">
         <v>330</v>
       </c>
-      <c r="M14" s="178"/>
+      <c r="M14" s="190"/>
       <c r="N14" s="16" t="s">
         <v>228</v>
       </c>
@@ -19059,19 +19057,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="199"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="174" t="s">
+      <c r="C15" s="175"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="176"/>
+      <c r="M15" s="207"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
@@ -19079,19 +19077,19 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="174" t="s">
+      <c r="C16" s="176"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="189" t="s">
         <v>334</v>
       </c>
-      <c r="M16" s="176"/>
+      <c r="M16" s="207"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -19107,8 +19105,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="180"/>
+      <c r="L17" s="212"/>
+      <c r="M17" s="188"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" ht="39" x14ac:dyDescent="0.2">
@@ -19129,10 +19127,10 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="212" t="s">
+      <c r="L18" s="211" t="s">
         <v>325</v>
       </c>
-      <c r="M18" s="178"/>
+      <c r="M18" s="190"/>
       <c r="N18" s="27" t="s">
         <v>353</v>
       </c>
@@ -19150,8 +19148,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="180"/>
+      <c r="L19" s="212"/>
+      <c r="M19" s="188"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="39" x14ac:dyDescent="0.2">
@@ -19172,10 +19170,10 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="212" t="s">
+      <c r="L20" s="211" t="s">
         <v>326</v>
       </c>
-      <c r="M20" s="178"/>
+      <c r="M20" s="190"/>
       <c r="N20" s="27" t="s">
         <v>354</v>
       </c>
@@ -19198,10 +19196,10 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="212" t="s">
+      <c r="L21" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="178"/>
+      <c r="M21" s="190"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -19217,8 +19215,8 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="180"/>
+      <c r="L22" s="212"/>
+      <c r="M22" s="188"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" ht="221" x14ac:dyDescent="0.2">
@@ -19239,10 +19237,10 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="212" t="s">
+      <c r="L23" s="211" t="s">
         <v>475</v>
       </c>
-      <c r="M23" s="178"/>
+      <c r="M23" s="190"/>
       <c r="N23" s="27" t="s">
         <v>474</v>
       </c>
@@ -19265,10 +19263,10 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="212" t="s">
+      <c r="L24" s="211" t="s">
         <v>327</v>
       </c>
-      <c r="M24" s="178"/>
+      <c r="M24" s="190"/>
       <c r="N24" s="27" t="s">
         <v>355</v>
       </c>
@@ -19291,10 +19289,10 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="212" t="s">
+      <c r="L25" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="178"/>
+      <c r="M25" s="190"/>
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="65" x14ac:dyDescent="0.2">
@@ -19315,10 +19313,10 @@
       <c r="I26" s="142"/>
       <c r="J26" s="142"/>
       <c r="K26" s="142"/>
-      <c r="L26" s="212" t="s">
+      <c r="L26" s="211" t="s">
         <v>457</v>
       </c>
-      <c r="M26" s="178"/>
+      <c r="M26" s="190"/>
       <c r="N26" s="27" t="s">
         <v>458</v>
       </c>
@@ -19328,23 +19326,23 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="203" t="s">
+      <c r="C27" s="179" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="191"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="191" t="s">
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="212" t="s">
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="211" t="s">
         <v>328</v>
       </c>
-      <c r="M27" s="178"/>
+      <c r="M27" s="190"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="104" x14ac:dyDescent="0.2">
@@ -19352,19 +19350,19 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="199"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="212" t="s">
+      <c r="C28" s="175"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="211" t="s">
         <v>329</v>
       </c>
-      <c r="M28" s="178"/>
+      <c r="M28" s="190"/>
       <c r="N28" s="27" t="s">
         <v>356</v>
       </c>
@@ -19382,8 +19380,8 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="180"/>
+      <c r="L29" s="212"/>
+      <c r="M29" s="188"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19404,10 +19402,10 @@
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="212" t="s">
+      <c r="L30" s="211" t="s">
         <v>331</v>
       </c>
-      <c r="M30" s="178"/>
+      <c r="M30" s="190"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19428,10 +19426,10 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="212" t="s">
+      <c r="L31" s="211" t="s">
         <v>332</v>
       </c>
-      <c r="M31" s="178"/>
+      <c r="M31" s="190"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19452,10 +19450,10 @@
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="212" t="s">
+      <c r="L32" s="211" t="s">
         <v>333</v>
       </c>
-      <c r="M32" s="178"/>
+      <c r="M32" s="190"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -19471,8 +19469,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="180"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="188"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19493,10 +19491,10 @@
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
-      <c r="L34" s="212" t="s">
+      <c r="L34" s="211" t="s">
         <v>468</v>
       </c>
-      <c r="M34" s="178"/>
+      <c r="M34" s="190"/>
       <c r="N34" s="29" t="s">
         <v>469</v>
       </c>
@@ -19518,7 +19516,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
-      <c r="L35" s="212" t="s">
+      <c r="L35" s="211" t="s">
         <v>470</v>
       </c>
       <c r="M35" s="213"/>
@@ -19560,8 +19558,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="211"/>
-      <c r="M37" s="180"/>
+      <c r="L37" s="212"/>
+      <c r="M37" s="188"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19582,10 +19580,10 @@
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="212" t="s">
+      <c r="L38" s="211" t="s">
         <v>339</v>
       </c>
-      <c r="M38" s="178"/>
+      <c r="M38" s="190"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19606,88 +19604,88 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="212" t="s">
+      <c r="L39" s="211" t="s">
         <v>335</v>
       </c>
-      <c r="M39" s="178"/>
+      <c r="M39" s="190"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="185">
+      <c r="B40" s="197">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="203" t="s">
+      <c r="C40" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="191" t="s">
+      <c r="D40" s="180"/>
+      <c r="E40" s="180"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="191"/>
-      <c r="J40" s="191"/>
-      <c r="K40" s="191"/>
-      <c r="L40" s="174" t="s">
+      <c r="I40" s="180"/>
+      <c r="J40" s="180"/>
+      <c r="K40" s="180"/>
+      <c r="L40" s="189" t="s">
         <v>366</v>
       </c>
-      <c r="M40" s="178"/>
-      <c r="N40" s="182"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="203"/>
     </row>
     <row r="41" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="186"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="186"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="200"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="198"/>
       <c r="L41" s="80" t="s">
         <v>337</v>
       </c>
       <c r="M41" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="N41" s="183"/>
+      <c r="N41" s="204"/>
     </row>
     <row r="42" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="186"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="186"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="200"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="198"/>
+      <c r="K42" s="198"/>
       <c r="L42" s="82" t="s">
         <v>341</v>
       </c>
       <c r="M42" s="85" t="s">
         <v>340</v>
       </c>
-      <c r="N42" s="183"/>
+      <c r="N42" s="204"/>
     </row>
     <row r="43" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="187"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="192"/>
-      <c r="G43" s="192"/>
-      <c r="H43" s="192"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
-      <c r="K43" s="192"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
+      <c r="K43" s="202"/>
       <c r="L43" s="77"/>
       <c r="M43" s="79"/>
-      <c r="N43" s="184"/>
+      <c r="N43" s="205"/>
     </row>
     <row r="44" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
@@ -19707,10 +19705,10 @@
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="174" t="s">
+      <c r="L44" s="189" t="s">
         <v>344</v>
       </c>
-      <c r="M44" s="176"/>
+      <c r="M44" s="207"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19731,10 +19729,10 @@
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="174" t="s">
+      <c r="L45" s="189" t="s">
         <v>259</v>
       </c>
-      <c r="M45" s="176"/>
+      <c r="M45" s="207"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -19755,10 +19753,10 @@
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="174" t="s">
+      <c r="L46" s="189" t="s">
         <v>260</v>
       </c>
-      <c r="M46" s="176"/>
+      <c r="M46" s="207"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19779,10 +19777,10 @@
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="174" t="s">
+      <c r="L47" s="189" t="s">
         <v>261</v>
       </c>
-      <c r="M47" s="176"/>
+      <c r="M47" s="207"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19803,10 +19801,10 @@
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="174" t="s">
+      <c r="L48" s="189" t="s">
         <v>262</v>
       </c>
-      <c r="M48" s="176"/>
+      <c r="M48" s="207"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -19822,8 +19820,8 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="211"/>
-      <c r="M49" s="180"/>
+      <c r="L49" s="212"/>
+      <c r="M49" s="188"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="2:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19844,10 +19842,10 @@
       <c r="I50" s="24"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="212" t="s">
+      <c r="L50" s="211" t="s">
         <v>342</v>
       </c>
-      <c r="M50" s="178"/>
+      <c r="M50" s="190"/>
       <c r="N50" s="29"/>
     </row>
     <row r="51" spans="2:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19868,10 +19866,10 @@
       <c r="I51" s="24"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="212" t="s">
+      <c r="L51" s="211" t="s">
         <v>343</v>
       </c>
-      <c r="M51" s="178"/>
+      <c r="M51" s="190"/>
       <c r="N51" s="29"/>
     </row>
     <row r="52" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -19892,10 +19890,10 @@
       <c r="I52" s="24"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="212" t="s">
+      <c r="L52" s="211" t="s">
         <v>345</v>
       </c>
-      <c r="M52" s="176"/>
+      <c r="M52" s="207"/>
       <c r="N52" s="29"/>
     </row>
     <row r="53" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19916,10 +19914,10 @@
       <c r="I53" s="24"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="212" t="s">
+      <c r="L53" s="211" t="s">
         <v>346</v>
       </c>
-      <c r="M53" s="176"/>
+      <c r="M53" s="207"/>
       <c r="N53" s="29"/>
     </row>
     <row r="54" spans="2:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19940,10 +19938,10 @@
       <c r="I54" s="24"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
-      <c r="L54" s="212" t="s">
+      <c r="L54" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="M54" s="176"/>
+      <c r="M54" s="207"/>
       <c r="N54" s="29"/>
     </row>
     <row r="55" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -19964,10 +19962,10 @@
       <c r="I55" s="35"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="212" t="s">
+      <c r="L55" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="176"/>
+      <c r="M55" s="207"/>
       <c r="N55" s="29"/>
     </row>
     <row r="56" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -19983,8 +19981,8 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="211"/>
-      <c r="M56" s="180"/>
+      <c r="L56" s="212"/>
+      <c r="M56" s="188"/>
       <c r="N56" s="8"/>
     </row>
     <row r="57" spans="2:14" ht="52" x14ac:dyDescent="0.2">
@@ -20005,10 +20003,10 @@
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
-      <c r="L57" s="212" t="s">
+      <c r="L57" s="211" t="s">
         <v>351</v>
       </c>
-      <c r="M57" s="178"/>
+      <c r="M57" s="190"/>
       <c r="N57" s="27" t="s">
         <v>357</v>
       </c>
@@ -20031,10 +20029,10 @@
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="212" t="s">
+      <c r="L58" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="M58" s="178"/>
+      <c r="M58" s="190"/>
       <c r="N58" s="27"/>
     </row>
     <row r="59" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20055,10 +20053,10 @@
       <c r="I59" s="24"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="212" t="s">
+      <c r="L59" s="211" t="s">
         <v>347</v>
       </c>
-      <c r="M59" s="178"/>
+      <c r="M59" s="190"/>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20079,10 +20077,10 @@
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="212" t="s">
+      <c r="L60" s="211" t="s">
         <v>348</v>
       </c>
-      <c r="M60" s="178"/>
+      <c r="M60" s="190"/>
       <c r="N60" s="27"/>
     </row>
     <row r="61" spans="2:14" ht="52" x14ac:dyDescent="0.2">
@@ -20103,10 +20101,10 @@
       <c r="I61" s="24"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="212" t="s">
+      <c r="L61" s="211" t="s">
         <v>349</v>
       </c>
-      <c r="M61" s="176"/>
+      <c r="M61" s="207"/>
       <c r="N61" s="27" t="s">
         <v>358</v>
       </c>
@@ -20129,10 +20127,10 @@
       <c r="I62" s="35"/>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
-      <c r="L62" s="212" t="s">
+      <c r="L62" s="211" t="s">
         <v>350</v>
       </c>
-      <c r="M62" s="176"/>
+      <c r="M62" s="207"/>
       <c r="N62" s="27" t="s">
         <v>359</v>
       </c>
@@ -20140,18 +20138,61 @@
   </sheetData>
   <autoFilter ref="B12:N62"/>
   <mergeCells count="83">
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="D40:D43"/>
@@ -20168,61 +20209,18 @@
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -20246,9 +20244,7 @@
   </sheetPr>
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:M21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20276,36 +20272,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="str">
+      <c r="B3" s="162" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(Ansible Tower)</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="53"/>
       <c r="M3" s="53"/>
       <c r="N3" s="19"/>
@@ -20440,33 +20436,33 @@
       <c r="N11" s="19"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="195" t="s">
+      <c r="C12" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="197" t="s">
+      <c r="D12" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="198"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="206" t="s">
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="207"/>
-      <c r="N12" s="201" t="s">
+      <c r="M12" s="184"/>
+      <c r="N12" s="177" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="194"/>
-      <c r="C13" s="196"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="194"/>
       <c r="D13" s="4" t="s">
         <v>111</v>
       </c>
@@ -20491,9 +20487,9 @@
       <c r="K13" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="L13" s="208"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="202"/>
+      <c r="L13" s="185"/>
+      <c r="M13" s="186"/>
+      <c r="N13" s="178"/>
     </row>
     <row r="14" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -20508,8 +20504,8 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="216"/>
+      <c r="L14" s="212"/>
+      <c r="M14" s="217"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20530,88 +20526,88 @@
       <c r="I15" s="49"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="212" t="s">
+      <c r="L15" s="211" t="s">
         <v>365</v>
       </c>
-      <c r="M15" s="176"/>
+      <c r="M15" s="207"/>
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="185">
+      <c r="B16" s="197">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="218" t="s">
+      <c r="C16" s="219" t="s">
         <v>361</v>
       </c>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="191" t="s">
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="191"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="174" t="s">
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="189" t="s">
         <v>237</v>
       </c>
-      <c r="M16" s="178"/>
-      <c r="N16" s="182"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="203"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="186"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
       <c r="L17" s="80" t="s">
         <v>367</v>
       </c>
       <c r="M17" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="N17" s="183"/>
+      <c r="N17" s="204"/>
     </row>
     <row r="18" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="186"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="186"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
       <c r="L18" s="82" t="s">
         <v>369</v>
       </c>
       <c r="M18" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="N18" s="183"/>
+      <c r="N18" s="204"/>
     </row>
     <row r="19" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="217"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="174"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="184"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="216"/>
+      <c r="N19" s="205"/>
     </row>
     <row r="20" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
@@ -20648,10 +20644,10 @@
       <c r="I21" s="35"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="212" t="s">
+      <c r="L21" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="M21" s="176"/>
+      <c r="M21" s="207"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20672,32 +20668,15 @@
       <c r="I22" s="35"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="212" t="s">
+      <c r="L22" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="M22" s="176"/>
+      <c r="M22" s="207"/>
       <c r="N22" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B13:N22"/>
   <mergeCells count="24">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -20705,6 +20684,23 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:K12"/>
     <mergeCell ref="L12:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20725,7 +20721,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L77" sqref="L77"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20:M20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -20754,18 +20750,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="19" t="s">
         <v>166</v>
       </c>
@@ -20773,19 +20769,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="str">
+      <c r="B3" s="162" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(Cobbler)</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="53" t="s">
         <v>167</v>
       </c>
@@ -20908,33 +20904,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="206" t="s">
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="207"/>
-      <c r="N11" s="201" t="s">
+      <c r="M11" s="184"/>
+      <c r="N11" s="177" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="4" t="s">
         <v>111</v>
       </c>
@@ -20959,9 +20955,9 @@
       <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="208"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="202"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="178"/>
     </row>
     <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
@@ -20976,8 +20972,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="180"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="188"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20985,23 +20981,23 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="203" t="s">
+      <c r="C14" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191" t="s">
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="174" t="s">
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="189" t="s">
         <v>225</v>
       </c>
-      <c r="M14" s="178"/>
+      <c r="M14" s="190"/>
       <c r="N14" s="16" t="s">
         <v>227</v>
       </c>
@@ -21011,19 +21007,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="199"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="174" t="s">
+      <c r="C15" s="175"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="176"/>
+      <c r="M15" s="207"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21031,19 +21027,19 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="174" t="s">
+      <c r="C16" s="176"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="189" t="s">
         <v>226</v>
       </c>
-      <c r="M16" s="176"/>
+      <c r="M16" s="207"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -21059,8 +21055,8 @@
       <c r="I17" s="132"/>
       <c r="J17" s="132"/>
       <c r="K17" s="132"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="180"/>
+      <c r="L17" s="212"/>
+      <c r="M17" s="188"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" ht="39" x14ac:dyDescent="0.2">
@@ -21081,10 +21077,10 @@
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="212" t="s">
+      <c r="L18" s="211" t="s">
         <v>325</v>
       </c>
-      <c r="M18" s="178"/>
+      <c r="M18" s="190"/>
       <c r="N18" s="27" t="s">
         <v>352</v>
       </c>
@@ -21102,8 +21098,8 @@
       <c r="I19" s="132"/>
       <c r="J19" s="132"/>
       <c r="K19" s="132"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="180"/>
+      <c r="L19" s="212"/>
+      <c r="M19" s="188"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="221" x14ac:dyDescent="0.2">
@@ -21124,10 +21120,10 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="212" t="s">
+      <c r="L20" s="211" t="s">
         <v>476</v>
       </c>
-      <c r="M20" s="178"/>
+      <c r="M20" s="190"/>
       <c r="N20" s="27" t="s">
         <v>474</v>
       </c>
@@ -21150,10 +21146,10 @@
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="212" t="s">
+      <c r="L21" s="211" t="s">
         <v>327</v>
       </c>
-      <c r="M21" s="178"/>
+      <c r="M21" s="190"/>
       <c r="N21" s="27" t="s">
         <v>355</v>
       </c>
@@ -21176,10 +21172,10 @@
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="212" t="s">
+      <c r="L22" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="178"/>
+      <c r="M22" s="190"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="65" x14ac:dyDescent="0.2">
@@ -21200,10 +21196,10 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="212" t="s">
+      <c r="L23" s="211" t="s">
         <v>473</v>
       </c>
-      <c r="M23" s="178"/>
+      <c r="M23" s="190"/>
       <c r="N23" s="27" t="s">
         <v>458</v>
       </c>
@@ -21213,23 +21209,23 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="203" t="s">
+      <c r="C24" s="179" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191" t="s">
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="191"/>
-      <c r="K24" s="191"/>
-      <c r="L24" s="212" t="s">
+      <c r="J24" s="180"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="M24" s="178"/>
+      <c r="M24" s="190"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="2:14" ht="104" x14ac:dyDescent="0.2">
@@ -21237,19 +21233,19 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="199"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="212" t="s">
+      <c r="C25" s="175"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="211" t="s">
         <v>329</v>
       </c>
-      <c r="M25" s="178"/>
+      <c r="M25" s="190"/>
       <c r="N25" s="27" t="s">
         <v>232</v>
       </c>
@@ -21267,8 +21263,8 @@
       <c r="I26" s="132"/>
       <c r="J26" s="132"/>
       <c r="K26" s="132"/>
-      <c r="L26" s="211"/>
-      <c r="M26" s="180"/>
+      <c r="L26" s="212"/>
+      <c r="M26" s="188"/>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21289,10 +21285,10 @@
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="212" t="s">
+      <c r="L27" s="211" t="s">
         <v>331</v>
       </c>
-      <c r="M27" s="178"/>
+      <c r="M27" s="190"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21313,10 +21309,10 @@
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="212" t="s">
+      <c r="L28" s="211" t="s">
         <v>332</v>
       </c>
-      <c r="M28" s="178"/>
+      <c r="M28" s="190"/>
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21337,10 +21333,10 @@
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="212" t="s">
+      <c r="L29" s="211" t="s">
         <v>333</v>
       </c>
-      <c r="M29" s="178"/>
+      <c r="M29" s="190"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -21356,8 +21352,8 @@
       <c r="I30" s="132"/>
       <c r="J30" s="132"/>
       <c r="K30" s="132"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="180"/>
+      <c r="L30" s="212"/>
+      <c r="M30" s="188"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21378,10 +21374,10 @@
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="212" t="s">
+      <c r="L31" s="211" t="s">
         <v>339</v>
       </c>
-      <c r="M31" s="178"/>
+      <c r="M31" s="190"/>
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -21402,88 +21398,88 @@
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="212" t="s">
+      <c r="L32" s="211" t="s">
         <v>335</v>
       </c>
-      <c r="M32" s="178"/>
+      <c r="M32" s="190"/>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="185">
+      <c r="B33" s="197">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="203" t="s">
+      <c r="C33" s="179" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="191" t="s">
+      <c r="D33" s="180"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="191"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="174" t="s">
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="189" t="s">
         <v>237</v>
       </c>
-      <c r="M33" s="178"/>
-      <c r="N33" s="182"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="203"/>
     </row>
     <row r="34" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="222"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="198"/>
       <c r="L34" s="80" t="s">
         <v>380</v>
       </c>
       <c r="M34" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="N34" s="183"/>
+      <c r="N34" s="204"/>
     </row>
     <row r="35" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="222"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="186"/>
+      <c r="C35" s="200"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="198"/>
       <c r="L35" s="82" t="s">
         <v>341</v>
       </c>
       <c r="M35" s="85" t="s">
         <v>248</v>
       </c>
-      <c r="N35" s="183"/>
+      <c r="N35" s="204"/>
     </row>
     <row r="36" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="223"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="202"/>
+      <c r="K36" s="202"/>
       <c r="L36" s="131"/>
       <c r="M36" s="130"/>
-      <c r="N36" s="184"/>
+      <c r="N36" s="205"/>
     </row>
     <row r="37" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
@@ -21503,10 +21499,10 @@
       </c>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="174" t="s">
+      <c r="L37" s="189" t="s">
         <v>258</v>
       </c>
-      <c r="M37" s="176"/>
+      <c r="M37" s="207"/>
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -21527,10 +21523,10 @@
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="174" t="s">
+      <c r="L38" s="189" t="s">
         <v>259</v>
       </c>
-      <c r="M38" s="176"/>
+      <c r="M38" s="207"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21551,10 +21547,10 @@
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="174" t="s">
+      <c r="L39" s="189" t="s">
         <v>260</v>
       </c>
-      <c r="M39" s="176"/>
+      <c r="M39" s="207"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21575,10 +21571,10 @@
       </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="174" t="s">
+      <c r="L40" s="189" t="s">
         <v>261</v>
       </c>
-      <c r="M40" s="176"/>
+      <c r="M40" s="207"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21599,10 +21595,10 @@
       </c>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="174" t="s">
+      <c r="L41" s="189" t="s">
         <v>381</v>
       </c>
-      <c r="M41" s="176"/>
+      <c r="M41" s="207"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -21623,10 +21619,10 @@
       </c>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="174" t="s">
+      <c r="L42" s="189" t="s">
         <v>382</v>
       </c>
-      <c r="M42" s="176"/>
+      <c r="M42" s="207"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21647,10 +21643,10 @@
       </c>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="174" t="s">
+      <c r="L43" s="189" t="s">
         <v>383</v>
       </c>
-      <c r="M43" s="176"/>
+      <c r="M43" s="207"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21671,10 +21667,10 @@
       </c>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="174" t="s">
+      <c r="L44" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="M44" s="176"/>
+      <c r="M44" s="207"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -21690,8 +21686,8 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="211"/>
-      <c r="M45" s="180"/>
+      <c r="L45" s="212"/>
+      <c r="M45" s="188"/>
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="2:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21712,10 +21708,10 @@
       </c>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="212" t="s">
+      <c r="L46" s="211" t="s">
         <v>386</v>
       </c>
-      <c r="M46" s="178"/>
+      <c r="M46" s="190"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="19" x14ac:dyDescent="0.2">
@@ -21731,8 +21727,8 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="211"/>
-      <c r="M47" s="180"/>
+      <c r="L47" s="212"/>
+      <c r="M47" s="188"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21753,36 +21749,47 @@
       </c>
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
-      <c r="L48" s="212" t="s">
+      <c r="L48" s="211" t="s">
         <v>390</v>
       </c>
-      <c r="M48" s="178"/>
+      <c r="M48" s="190"/>
       <c r="N48" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:N48"/>
   <mergeCells count="69">
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L11:M12"/>
@@ -21799,38 +21806,27 @@
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="L31:M31"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -21857,7 +21853,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L48" sqref="L48:M48"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:N13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -21886,36 +21882,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="str">
+      <c r="B3" s="162" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(OpenStack)</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -22026,33 +22022,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="206" t="s">
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="M11" s="207"/>
-      <c r="N11" s="201" t="s">
+      <c r="M11" s="184"/>
+      <c r="N11" s="177" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="4" t="s">
         <v>111</v>
       </c>
@@ -22077,9 +22073,9 @@
       <c r="K12" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="L12" s="208"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="202"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="178"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32">
@@ -22132,7 +22128,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L48" sqref="L48:M48"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:N13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -22161,36 +22157,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="str">
+      <c r="B3" s="162" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA configuration(Terraform)</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -22301,33 +22297,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="206" t="s">
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="M11" s="207"/>
-      <c r="N11" s="201" t="s">
+      <c r="M11" s="184"/>
+      <c r="N11" s="177" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="4" t="s">
         <v>111</v>
       </c>
@@ -22352,9 +22348,9 @@
       <c r="K12" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="L12" s="208"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="202"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="178"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32">
